--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - EDU.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - EDU.xlsx
@@ -5,21 +5,27 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Canteen" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AM$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AM$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AM$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Canteen!$A$1:$AM$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AM$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AM$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AM$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AM$59</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AM$59</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AM$54</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AM$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Canteen!$A$1:$AM$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Canteen!$A$1:$AM$54</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AM$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AM$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AM$54</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AM$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AM$59</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="249">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -263,7 +269,7 @@
     <t xml:space="preserve">Coca-Cola Zero - 0.25L Slim, Coca-Cola Zero Cherry - 0.25L Slim, Coca-Cola Zero - 0.33L Glass</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000020987, 5449000239655, 90375408</t>
+    <t xml:space="preserve">5449000020987, 5449000239655, 90375408</t>
   </si>
   <si>
     <t xml:space="preserve">Coca-Cola - 0.5L</t>
@@ -344,7 +350,7 @@
     <t xml:space="preserve">BRAND</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.25 0.33 0.5</t>
+    <t xml:space="preserve">0.25, 0.33, 0.5</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 2</t>
@@ -362,7 +368,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">BonAqua Still/Carb 0,33/0.5L SmartWater Still-0.6L</t>
+    <t xml:space="preserve">BonAqua Still/Carb 0-33/0.5L SmartWater Still-0.6L</t>
   </si>
   <si>
     <t xml:space="preserve">БонАква Негаз/Газ-0.5л /Смарт вода-0.6л/БонАква Негаз/ Газ-0.33л стекло</t>
@@ -547,12 +553,6 @@
     <t xml:space="preserve">Coca-Cola, Dobriy, Rich, Fuzetea, Bonaqua, SmartWater</t>
   </si>
   <si>
-    <t xml:space="preserve">MAN in CAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25, 0.33, 0.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Activation</t>
   </si>
   <si>
@@ -623,6 +623,9 @@
     <t xml:space="preserve">facings TCCC/40</t>
   </si>
   <si>
+    <t xml:space="preserve">TCCC</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAN</t>
   </si>
   <si>
@@ -708,9 +711,6 @@
     <t xml:space="preserve">IC Activation</t>
   </si>
   <si>
-    <t xml:space="preserve">SUB_CATEGORY</t>
-  </si>
-  <si>
     <t xml:space="preserve">Juice&amp;Meal:Food</t>
   </si>
   <si>
@@ -763,7 +763,7 @@
     <t xml:space="preserve">COOLER_QUALITY</t>
   </si>
   <si>
-    <t xml:space="preserve">CCH coolers quality (Prime Pos, Max15, Merch STD, Occupancy, Lights&amp;clean)</t>
+    <t xml:space="preserve">CCH coolers quality (Prime Pos- Max15- Merch STD- Occupancy- Lights&amp;clean)</t>
   </si>
   <si>
     <t xml:space="preserve">sum of KPI scores</t>
@@ -831,15 +831,15 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00000%"/>
-    <numFmt numFmtId="166" formatCode="0"/>
-    <numFmt numFmtId="167" formatCode="0.00"/>
-    <numFmt numFmtId="168" formatCode="0.00%"/>
-    <numFmt numFmtId="169" formatCode="0%"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="167" formatCode="0"/>
+    <numFmt numFmtId="168" formatCode="0.00"/>
+    <numFmt numFmtId="169" formatCode="0.00%"/>
     <numFmt numFmtId="170" formatCode="@"/>
     <numFmt numFmtId="171" formatCode="0.0000000000000000%"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -869,6 +869,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -883,7 +889,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -898,14 +904,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF579D1C"/>
+        <bgColor rgb="FF808000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
+        <bgColor rgb="FFCC3300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFCC3300"/>
+        <bgColor rgb="FFFF3300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -944,18 +974,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -964,31 +994,31 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -996,24 +1026,24 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1024,11 +1054,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1040,7 +1066,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1048,11 +1078,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1060,7 +1098,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1078,7 +1116,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFF3300"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1118,17 +1156,17 @@
       <rgbColor rgb="FFFFC7CE"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF579D1C"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFCC3300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -1149,54 +1187,53 @@
   <dimension ref="1:54"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="N10" activeCellId="0" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0404858299595"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.412955465587"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.9919028340081"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="67.582995951417"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="69.6356275303644"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.0283400809717"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.7692307692308"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.9919028340081"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.4048582995951"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="130.433198380567"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="79.5587044534413"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.919028340081"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="44.5910931174089"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.1336032388664"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.4048582995951"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="11.9919028340081"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.8744939271255"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="16.8663967611336"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.4372469635628"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.753036437247"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.2307692307692"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.2712550607287"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.1457489878543"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.6194331983806"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="58.1376518218624"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="70.5910931174089"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="72.6275303643725"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="136.46963562753"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="83.0161943319838"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="46.4898785425101"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="60.5222672064777"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="1021" min="39" style="1" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="3" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1021" min="38" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="3" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" s="8" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1362,15 +1399,15 @@
       <c r="AA2" s="9"/>
       <c r="AB2" s="9"/>
       <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="12"/>
       <c r="AF2" s="9"/>
       <c r="AG2" s="9"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12" t="n">
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="AJ2" s="12" t="n">
+      <c r="AJ2" s="13" t="n">
         <v>300</v>
       </c>
       <c r="AK2" s="9"/>
@@ -1420,19 +1457,19 @@
       <c r="AA3" s="9"/>
       <c r="AB3" s="9"/>
       <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="12"/>
       <c r="AF3" s="9"/>
       <c r="AG3" s="9"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12" t="n">
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="AJ3" s="12" t="n">
+      <c r="AJ3" s="13" t="n">
         <v>310</v>
       </c>
       <c r="AK3" s="9"/>
-      <c r="AL3" s="12"/>
+      <c r="AL3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
@@ -1478,19 +1515,19 @@
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
       <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="12"/>
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12" t="n">
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="AJ4" s="12" t="n">
+      <c r="AJ4" s="13" t="n">
         <v>311</v>
       </c>
       <c r="AK4" s="9"/>
-      <c r="AL4" s="12" t="n">
+      <c r="AL4" s="13" t="n">
         <v>310</v>
       </c>
     </row>
@@ -1538,21 +1575,21 @@
       <c r="AA5" s="9"/>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="12"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12" t="n">
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="AJ5" s="12" t="n">
+      <c r="AJ5" s="13" t="n">
         <v>312</v>
       </c>
-      <c r="AK5" s="13" t="s">
+      <c r="AK5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AL5" s="12" t="n">
+      <c r="AL5" s="13" t="n">
         <v>310</v>
       </c>
     </row>
@@ -1600,21 +1637,21 @@
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="12"/>
       <c r="AF6" s="9"/>
       <c r="AG6" s="9"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12" t="n">
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="AJ6" s="12" t="n">
+      <c r="AJ6" s="13" t="n">
         <v>400</v>
       </c>
-      <c r="AK6" s="13" t="s">
+      <c r="AK6" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="AL6" s="12"/>
+      <c r="AL6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A7" s="9" t="n">
@@ -1646,9 +1683,9 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
@@ -1664,7 +1701,7 @@
       <c r="AC7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AD7" s="14"/>
+      <c r="AD7" s="11"/>
       <c r="AE7" s="9"/>
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
@@ -1675,7 +1712,7 @@
       <c r="AJ7" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AK7" s="13" t="s">
+      <c r="AK7" s="14" t="s">
         <v>57</v>
       </c>
       <c r="AL7" s="15" t="n">
@@ -1716,11 +1753,11 @@
       <c r="M8" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
       <c r="Q8" s="9" t="s">
         <v>63</v>
       </c>
@@ -1744,7 +1781,7 @@
       <c r="AC8" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD8" s="17" t="n">
+      <c r="AD8" s="11" t="n">
         <v>0.035</v>
       </c>
       <c r="AE8" s="9"/>
@@ -1793,14 +1830,14 @@
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="N9" s="18" t="s">
+      <c r="N9" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
       <c r="Q9" s="9" t="s">
         <v>63</v>
       </c>
@@ -1824,7 +1861,7 @@
       <c r="AC9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD9" s="17" t="n">
+      <c r="AD9" s="11" t="n">
         <v>0.0215</v>
       </c>
       <c r="AE9" s="9"/>
@@ -1876,11 +1913,11 @@
       <c r="M10" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="N10" s="12" t="n">
+      <c r="N10" s="13" t="n">
         <v>54491472</v>
       </c>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
       <c r="Q10" s="9" t="s">
         <v>63</v>
       </c>
@@ -1904,7 +1941,7 @@
       <c r="AC10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD10" s="17" t="n">
+      <c r="AD10" s="11" t="n">
         <v>0.02142</v>
       </c>
       <c r="AE10" s="9"/>
@@ -1956,7 +1993,7 @@
       <c r="M11" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="N11" s="13" t="s">
         <v>77</v>
       </c>
       <c r="O11" s="9"/>
@@ -1984,7 +2021,7 @@
       <c r="AC11" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD11" s="17" t="n">
+      <c r="AD11" s="11" t="n">
         <v>0.02142</v>
       </c>
       <c r="AE11" s="9"/>
@@ -2034,7 +2071,7 @@
       <c r="M12" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="N12" s="13" t="s">
         <v>81</v>
       </c>
       <c r="O12" s="9"/>
@@ -2062,7 +2099,7 @@
       <c r="AC12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD12" s="17" t="n">
+      <c r="AD12" s="11" t="n">
         <v>0.02142</v>
       </c>
       <c r="AE12" s="9"/>
@@ -2114,11 +2151,11 @@
       <c r="M13" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="N13" s="12" t="n">
+      <c r="N13" s="13" t="n">
         <v>54491069</v>
       </c>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
       <c r="Q13" s="9" t="s">
         <v>63</v>
       </c>
@@ -2142,7 +2179,7 @@
       <c r="AC13" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD13" s="17" t="n">
+      <c r="AD13" s="11" t="n">
         <v>0.02142</v>
       </c>
       <c r="AE13" s="9"/>
@@ -2194,11 +2231,11 @@
       <c r="M14" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="N14" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
       <c r="Q14" s="9" t="s">
         <v>63</v>
       </c>
@@ -2222,7 +2259,7 @@
       <c r="AC14" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD14" s="17" t="n">
+      <c r="AD14" s="11" t="n">
         <v>0.02142</v>
       </c>
       <c r="AE14" s="9"/>
@@ -2274,11 +2311,11 @@
       <c r="M15" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="N15" s="12" t="n">
+      <c r="N15" s="13" t="n">
         <v>40822939</v>
       </c>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
       <c r="Q15" s="9" t="s">
         <v>63</v>
       </c>
@@ -2302,7 +2339,7 @@
       <c r="AC15" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD15" s="17" t="n">
+      <c r="AD15" s="11" t="n">
         <v>0.02142</v>
       </c>
       <c r="AE15" s="9"/>
@@ -2354,11 +2391,11 @@
       <c r="M16" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="N16" s="19" t="s">
+      <c r="N16" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
       <c r="Q16" s="9" t="s">
         <v>63</v>
       </c>
@@ -2382,7 +2419,7 @@
       <c r="AC16" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD16" s="17" t="n">
+      <c r="AD16" s="11" t="n">
         <v>0.0075</v>
       </c>
       <c r="AE16" s="9"/>
@@ -2419,7 +2456,7 @@
       <c r="F17" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="19" t="s">
         <v>95</v>
       </c>
       <c r="H17" s="9" t="s">
@@ -2432,9 +2469,11 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12" t="s">
+      <c r="N17" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13" t="s">
         <v>96</v>
       </c>
       <c r="Q17" s="9" t="s">
@@ -2462,7 +2501,7 @@
       <c r="AC17" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD17" s="17" t="n">
+      <c r="AD17" s="11" t="n">
         <v>0.0075</v>
       </c>
       <c r="AE17" s="9"/>
@@ -2510,9 +2549,9 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
@@ -2528,7 +2567,7 @@
       <c r="AC18" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AD18" s="14"/>
+      <c r="AD18" s="11"/>
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
       <c r="AG18" s="9"/>
@@ -2539,7 +2578,7 @@
       <c r="AJ18" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="AK18" s="13" t="s">
+      <c r="AK18" s="14" t="s">
         <v>102</v>
       </c>
       <c r="AL18" s="15" t="n">
@@ -2577,10 +2616,10 @@
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="13" t="s">
+      <c r="M19" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N19" s="12" t="s">
+      <c r="N19" s="13" t="s">
         <v>106</v>
       </c>
       <c r="O19" s="9"/>
@@ -2608,7 +2647,7 @@
       <c r="AC19" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD19" s="17" t="n">
+      <c r="AD19" s="11" t="n">
         <v>0.034986</v>
       </c>
       <c r="AE19" s="9"/>
@@ -2660,7 +2699,7 @@
       <c r="M20" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="N20" s="12" t="n">
+      <c r="N20" s="13" t="n">
         <v>5449000152190</v>
       </c>
       <c r="O20" s="9"/>
@@ -2688,7 +2727,7 @@
       <c r="AC20" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD20" s="17" t="n">
+      <c r="AD20" s="11" t="n">
         <v>0.023766</v>
       </c>
       <c r="AE20" s="9"/>
@@ -2740,7 +2779,7 @@
       <c r="M21" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="N21" s="12" t="s">
+      <c r="N21" s="13" t="s">
         <v>112</v>
       </c>
       <c r="O21" s="9"/>
@@ -2768,7 +2807,7 @@
       <c r="AC21" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD21" s="17" t="n">
+      <c r="AD21" s="11" t="n">
         <v>0.014994</v>
       </c>
       <c r="AE21" s="9"/>
@@ -2816,9 +2855,9 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
@@ -2834,7 +2873,7 @@
       <c r="AC22" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AD22" s="14"/>
+      <c r="AD22" s="11"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="9"/>
       <c r="AG22" s="9"/>
@@ -2845,7 +2884,7 @@
       <c r="AJ22" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="AK22" s="13" t="s">
+      <c r="AK22" s="14" t="s">
         <v>115</v>
       </c>
       <c r="AL22" s="15" t="n">
@@ -2914,7 +2953,7 @@
       <c r="AC23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD23" s="17" t="n">
+      <c r="AD23" s="11" t="n">
         <v>0.034986</v>
       </c>
       <c r="AE23" s="9"/>
@@ -2994,7 +3033,7 @@
       <c r="AC24" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD24" s="17" t="n">
+      <c r="AD24" s="11" t="n">
         <v>0.023766</v>
       </c>
       <c r="AE24" s="9"/>
@@ -3046,7 +3085,7 @@
       <c r="M25" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="N25" s="18" t="s">
+      <c r="N25" s="17" t="s">
         <v>125</v>
       </c>
       <c r="O25" s="9"/>
@@ -3074,7 +3113,7 @@
       <c r="AC25" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD25" s="17" t="n">
+      <c r="AD25" s="11" t="n">
         <v>0.023766</v>
       </c>
       <c r="AE25" s="9"/>
@@ -3126,7 +3165,7 @@
       <c r="M26" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="N26" s="12" t="s">
+      <c r="N26" s="13" t="s">
         <v>129</v>
       </c>
       <c r="O26" s="9"/>
@@ -3154,7 +3193,7 @@
       <c r="AC26" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD26" s="17" t="n">
+      <c r="AD26" s="11" t="n">
         <v>0.014994</v>
       </c>
       <c r="AE26" s="9"/>
@@ -3202,9 +3241,9 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
       <c r="Q27" s="9"/>
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
@@ -3220,7 +3259,7 @@
       <c r="AC27" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AD27" s="14"/>
+      <c r="AD27" s="11"/>
       <c r="AE27" s="9"/>
       <c r="AF27" s="9"/>
       <c r="AG27" s="9"/>
@@ -3231,7 +3270,7 @@
       <c r="AJ27" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="AK27" s="13" t="s">
+      <c r="AK27" s="14" t="s">
         <v>132</v>
       </c>
       <c r="AL27" s="15" t="n">
@@ -3272,7 +3311,7 @@
       <c r="M28" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="N28" s="12" t="s">
+      <c r="N28" s="13" t="s">
         <v>136</v>
       </c>
       <c r="O28" s="9"/>
@@ -3300,7 +3339,7 @@
       <c r="AC28" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD28" s="17" t="n">
+      <c r="AD28" s="11" t="n">
         <v>0.034986</v>
       </c>
       <c r="AE28" s="9"/>
@@ -3352,7 +3391,7 @@
       <c r="M29" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="N29" s="12" t="n">
+      <c r="N29" s="13" t="n">
         <v>4607174577787</v>
       </c>
       <c r="O29" s="9"/>
@@ -3380,7 +3419,7 @@
       <c r="AC29" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD29" s="17" t="n">
+      <c r="AD29" s="11" t="n">
         <v>0.023698</v>
       </c>
       <c r="AE29" s="9"/>
@@ -3432,7 +3471,7 @@
       <c r="M30" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="N30" s="12" t="n">
+      <c r="N30" s="13" t="n">
         <v>4650075420980</v>
       </c>
       <c r="O30" s="9"/>
@@ -3460,7 +3499,7 @@
       <c r="AC30" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD30" s="17" t="n">
+      <c r="AD30" s="11" t="n">
         <v>0.023698</v>
       </c>
       <c r="AE30" s="9"/>
@@ -3512,7 +3551,7 @@
       <c r="M31" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="N31" s="12" t="s">
+      <c r="N31" s="13" t="s">
         <v>144</v>
       </c>
       <c r="O31" s="9"/>
@@ -3540,7 +3579,7 @@
       <c r="AC31" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD31" s="17" t="n">
+      <c r="AD31" s="11" t="n">
         <v>0.023766</v>
       </c>
       <c r="AE31" s="9"/>
@@ -3592,7 +3631,7 @@
       <c r="M32" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="N32" s="12" t="s">
+      <c r="N32" s="13" t="s">
         <v>148</v>
       </c>
       <c r="O32" s="9"/>
@@ -3620,7 +3659,7 @@
       <c r="AC32" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD32" s="17" t="n">
+      <c r="AD32" s="11" t="n">
         <v>0.023766</v>
       </c>
       <c r="AE32" s="9"/>
@@ -3672,7 +3711,7 @@
       <c r="M33" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="N33" s="12" t="n">
+      <c r="N33" s="13" t="n">
         <v>4607174579729</v>
       </c>
       <c r="O33" s="9"/>
@@ -3700,8 +3739,8 @@
       <c r="AC33" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD33" s="17" t="n">
-        <v>0.0238139999999997</v>
+      <c r="AD33" s="11" t="n">
+        <v>0.023814</v>
       </c>
       <c r="AE33" s="9"/>
       <c r="AF33" s="9"/>
@@ -3752,7 +3791,7 @@
       <c r="M34" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="N34" s="12" t="s">
+      <c r="N34" s="13" t="s">
         <v>155</v>
       </c>
       <c r="O34" s="9"/>
@@ -3780,7 +3819,7 @@
       <c r="AC34" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD34" s="17" t="n">
+      <c r="AD34" s="11" t="n">
         <v>0.014994</v>
       </c>
       <c r="AE34" s="9"/>
@@ -3832,7 +3871,9 @@
       <c r="M35" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="N35" s="9"/>
+      <c r="N35" s="23" t="s">
+        <v>160</v>
+      </c>
       <c r="O35" s="9"/>
       <c r="P35" s="9" t="s">
         <v>160</v>
@@ -3840,20 +3881,20 @@
       <c r="Q35" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R35" s="9" t="s">
-        <v>161</v>
+      <c r="R35" s="23" t="s">
+        <v>97</v>
       </c>
       <c r="S35" s="9" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
       <c r="W35" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="X35" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
@@ -3862,7 +3903,7 @@
       <c r="AC35" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD35" s="17" t="n">
+      <c r="AD35" s="11" t="n">
         <v>0.045</v>
       </c>
       <c r="AE35" s="9"/>
@@ -3897,10 +3938,10 @@
         <v>156</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>60</v>
@@ -3914,7 +3955,9 @@
       <c r="M36" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="N36" s="9"/>
+      <c r="N36" s="23" t="s">
+        <v>160</v>
+      </c>
       <c r="O36" s="9"/>
       <c r="P36" s="9" t="s">
         <v>160</v>
@@ -3922,20 +3965,20 @@
       <c r="Q36" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R36" s="9" t="s">
-        <v>161</v>
+      <c r="R36" s="23" t="s">
+        <v>97</v>
       </c>
       <c r="S36" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
       <c r="W36" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="X36" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
@@ -3944,7 +3987,7 @@
       <c r="AC36" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD36" s="17" t="n">
+      <c r="AD36" s="11" t="n">
         <v>0.045</v>
       </c>
       <c r="AE36" s="9"/>
@@ -3976,27 +4019,27 @@
         <v>40</v>
       </c>
       <c r="E37" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G37" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="H37" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>172</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
       <c r="Q37" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
@@ -4010,15 +4053,15 @@
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
       <c r="AC37" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="AD37" s="17" t="n">
+        <v>172</v>
+      </c>
+      <c r="AD37" s="11" t="n">
         <v>0.135</v>
       </c>
       <c r="AE37" s="9"/>
       <c r="AF37" s="9"/>
       <c r="AG37" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AH37" s="9"/>
       <c r="AI37" s="9" t="n">
@@ -4027,8 +4070,8 @@
       <c r="AJ37" s="9" t="n">
         <v>31</v>
       </c>
-      <c r="AK37" s="13" t="s">
-        <v>176</v>
+      <c r="AK37" s="14" t="s">
+        <v>174</v>
       </c>
       <c r="AL37" s="15" t="n">
         <v>311</v>
@@ -4048,16 +4091,16 @@
         <v>40</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F38" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="H38" s="9" t="s">
         <v>177</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>179</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9" t="n">
@@ -4066,11 +4109,11 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
+        <v>178</v>
+      </c>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
       <c r="Q38" s="9"/>
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
@@ -4078,7 +4121,7 @@
       <c r="U38" s="9"/>
       <c r="V38" s="9"/>
       <c r="W38" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
@@ -4088,13 +4131,11 @@
       <c r="AC38" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD38" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD38" s="11"/>
       <c r="AE38" s="9"/>
       <c r="AF38" s="9"/>
       <c r="AG38" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AH38" s="9"/>
       <c r="AI38" s="9" t="n">
@@ -4122,16 +4163,16 @@
         <v>40</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F39" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H39" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>185</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9" t="n">
@@ -4140,21 +4181,23 @@
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
+        <v>178</v>
+      </c>
+      <c r="N39" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
       <c r="Q39" s="9"/>
       <c r="R39" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S39" s="9"/>
       <c r="T39" s="9"/>
       <c r="U39" s="9"/>
       <c r="V39" s="9"/>
       <c r="W39" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
@@ -4164,9 +4207,7 @@
       <c r="AC39" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD39" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD39" s="11"/>
       <c r="AE39" s="9"/>
       <c r="AF39" s="9"/>
       <c r="AG39" s="9"/>
@@ -4196,16 +4237,16 @@
         <v>40</v>
       </c>
       <c r="E40" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F40" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="G40" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="H40" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>191</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9" t="n">
@@ -4215,13 +4256,13 @@
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
+        <v>191</v>
+      </c>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
       <c r="Q40" s="9"/>
       <c r="R40" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S40" s="9"/>
       <c r="T40" s="9"/>
@@ -4231,7 +4272,7 @@
         <v>65</v>
       </c>
       <c r="X40" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Y40" s="9"/>
       <c r="Z40" s="9"/>
@@ -4240,16 +4281,16 @@
       <c r="AC40" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD40" s="17" t="n">
+      <c r="AD40" s="11" t="n">
         <v>0.045</v>
       </c>
       <c r="AE40" s="9"/>
       <c r="AF40" s="9"/>
       <c r="AG40" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AH40" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AI40" s="9" t="n">
         <v>2</v>
@@ -4258,7 +4299,7 @@
         <v>34</v>
       </c>
       <c r="AK40" s="9"/>
-      <c r="AL40" s="23" t="n">
+      <c r="AL40" s="24" t="n">
         <v>312</v>
       </c>
     </row>
@@ -4276,16 +4317,16 @@
         <v>40</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F41" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="G41" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="H41" s="9" t="s">
         <v>196</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>197</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9" t="n">
@@ -4294,21 +4335,23 @@
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
+        <v>178</v>
+      </c>
+      <c r="N41" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
       <c r="Q41" s="9"/>
       <c r="R41" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S41" s="9"/>
       <c r="T41" s="9"/>
       <c r="U41" s="9"/>
       <c r="V41" s="9"/>
       <c r="W41" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
@@ -4316,18 +4359,18 @@
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
       <c r="AC41" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="AD41" s="17" t="n">
+        <v>172</v>
+      </c>
+      <c r="AD41" s="11" t="n">
         <v>0.045</v>
       </c>
       <c r="AE41" s="9"/>
       <c r="AF41" s="9"/>
       <c r="AG41" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AH41" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AI41" s="9" t="n">
         <v>2</v>
@@ -4336,7 +4379,7 @@
         <v>35</v>
       </c>
       <c r="AK41" s="9"/>
-      <c r="AL41" s="23" t="n">
+      <c r="AL41" s="24" t="n">
         <v>312</v>
       </c>
     </row>
@@ -4354,16 +4397,16 @@
         <v>40</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F42" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G42" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="H42" s="25" t="s">
         <v>200</v>
-      </c>
-      <c r="H42" s="24" t="s">
-        <v>201</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -4374,11 +4417,11 @@
         <v>15</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
+        <v>178</v>
+      </c>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
       <c r="Q42" s="9"/>
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
@@ -4386,7 +4429,7 @@
       <c r="U42" s="9"/>
       <c r="V42" s="9"/>
       <c r="W42" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
@@ -4394,18 +4437,18 @@
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
       <c r="AC42" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD42" s="17" t="n">
+        <v>201</v>
+      </c>
+      <c r="AD42" s="11" t="n">
         <v>0.045</v>
       </c>
       <c r="AE42" s="9"/>
       <c r="AF42" s="9"/>
       <c r="AG42" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AH42" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AI42" s="9" t="n">
         <v>2</v>
@@ -4414,7 +4457,7 @@
         <v>36</v>
       </c>
       <c r="AK42" s="9"/>
-      <c r="AL42" s="23" t="n">
+      <c r="AL42" s="24" t="n">
         <v>312</v>
       </c>
     </row>
@@ -4432,16 +4475,16 @@
         <v>40</v>
       </c>
       <c r="E43" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="F43" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="G43" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="H43" s="9" t="s">
         <v>205</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>206</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9" t="n">
@@ -4462,10 +4505,10 @@
       <c r="U43" s="9"/>
       <c r="V43" s="9"/>
       <c r="W43" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="X43" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Y43" s="9"/>
       <c r="Z43" s="9"/>
@@ -4474,7 +4517,7 @@
       <c r="AC43" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD43" s="17" t="n">
+      <c r="AD43" s="11" t="n">
         <v>0.05</v>
       </c>
       <c r="AE43" s="9"/>
@@ -4487,10 +4530,10 @@
       <c r="AJ43" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="AK43" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="AL43" s="23" t="n">
+      <c r="AK43" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL43" s="24" t="n">
         <v>400</v>
       </c>
     </row>
@@ -4508,13 +4551,13 @@
         <v>40</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F44" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G44" s="9" t="s">
         <v>209</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>210</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>60</v>
@@ -4526,32 +4569,32 @@
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="N44" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="N44" s="9" t="s">
+      <c r="O44" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="O44" s="9" t="s">
-        <v>213</v>
-      </c>
       <c r="P44" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q44" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R44" s="9" t="s">
-        <v>214</v>
+      <c r="R44" s="23" t="s">
+        <v>97</v>
       </c>
       <c r="S44" s="9"/>
       <c r="T44" s="9"/>
       <c r="U44" s="9"/>
       <c r="V44" s="9"/>
       <c r="W44" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="X44" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Y44" s="9"/>
       <c r="Z44" s="9"/>
@@ -4560,9 +4603,7 @@
       <c r="AC44" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD44" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD44" s="11"/>
       <c r="AE44" s="9"/>
       <c r="AF44" s="9"/>
       <c r="AG44" s="9"/>
@@ -4592,13 +4633,13 @@
         <v>40</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H45" s="9" t="s">
         <v>60</v>
@@ -4610,13 +4651,13 @@
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="N45" s="9" t="n">
         <v>5000034</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P45" s="9"/>
       <c r="Q45" s="9" t="s">
@@ -4630,10 +4671,10 @@
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>
       <c r="W45" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="X45" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Y45" s="9"/>
       <c r="Z45" s="9"/>
@@ -4642,13 +4683,11 @@
       <c r="AC45" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD45" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD45" s="11"/>
       <c r="AE45" s="9"/>
       <c r="AF45" s="9"/>
       <c r="AG45" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AH45" s="9"/>
       <c r="AI45" s="9" t="n">
@@ -4676,16 +4715,16 @@
         <v>40</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9" t="n">
@@ -4706,10 +4745,10 @@
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
       <c r="W46" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="X46" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Y46" s="9"/>
       <c r="Z46" s="9"/>
@@ -4718,7 +4757,7 @@
       <c r="AC46" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD46" s="17" t="n">
+      <c r="AD46" s="11" t="n">
         <v>0.05</v>
       </c>
       <c r="AE46" s="9"/>
@@ -4731,8 +4770,8 @@
       <c r="AJ46" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="AK46" s="13" t="s">
-        <v>221</v>
+      <c r="AK46" s="14" t="s">
+        <v>219</v>
       </c>
       <c r="AL46" s="15" t="n">
         <v>400</v>
@@ -4752,13 +4791,13 @@
         <v>40</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>60</v>
@@ -4770,16 +4809,16 @@
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="O47" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="P47" s="9" t="s">
         <v>224</v>
-      </c>
-      <c r="N47" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="O47" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="P47" s="9" t="s">
-        <v>226</v>
       </c>
       <c r="Q47" s="9" t="s">
         <v>63</v>
@@ -4792,10 +4831,10 @@
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
       <c r="W47" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="X47" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Y47" s="9"/>
       <c r="Z47" s="9"/>
@@ -4804,9 +4843,7 @@
       <c r="AC47" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD47" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD47" s="11"/>
       <c r="AE47" s="9"/>
       <c r="AF47" s="9"/>
       <c r="AG47" s="9"/>
@@ -4818,8 +4855,8 @@
         <v>41</v>
       </c>
       <c r="AK47" s="9"/>
-      <c r="AL47" s="9" t="n">
-        <v>39</v>
+      <c r="AL47" s="26" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4836,16 +4873,16 @@
         <v>40</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F48" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="H48" s="9" t="s">
         <v>227</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>229</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9" t="n">
@@ -4854,13 +4891,13 @@
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="N48" s="9" t="n">
         <v>5000034</v>
       </c>
       <c r="O48" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P48" s="9"/>
       <c r="Q48" s="9" t="s">
@@ -4874,10 +4911,10 @@
       <c r="U48" s="9"/>
       <c r="V48" s="9"/>
       <c r="W48" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="X48" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Y48" s="9"/>
       <c r="Z48" s="9"/>
@@ -4886,13 +4923,11 @@
       <c r="AC48" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AD48" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD48" s="11"/>
       <c r="AE48" s="9"/>
       <c r="AF48" s="9"/>
       <c r="AG48" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AH48" s="9"/>
       <c r="AI48" s="9" t="n">
@@ -4902,8 +4937,8 @@
         <v>42</v>
       </c>
       <c r="AK48" s="9"/>
-      <c r="AL48" s="9" t="n">
-        <v>39</v>
+      <c r="AL48" s="26" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4917,22 +4952,22 @@
         <v>39</v>
       </c>
       <c r="D49" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="G49" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="E49" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="F49" s="25" t="s">
+      <c r="H49" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="G49" s="25" t="s">
+      <c r="I49" s="9" t="s">
         <v>232</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>234</v>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
@@ -4943,7 +4978,7 @@
       <c r="P49" s="9"/>
       <c r="Q49" s="9"/>
       <c r="R49" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S49" s="9"/>
       <c r="T49" s="9"/>
@@ -4956,7 +4991,7 @@
       <c r="AA49" s="9"/>
       <c r="AB49" s="9"/>
       <c r="AC49" s="9"/>
-      <c r="AD49" s="17"/>
+      <c r="AD49" s="11"/>
       <c r="AE49" s="9"/>
       <c r="AF49" s="9"/>
       <c r="AG49" s="9"/>
@@ -4965,10 +5000,10 @@
       <c r="AJ49" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="AK49" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL49" s="13"/>
+      <c r="AK49" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL49" s="14"/>
     </row>
     <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="n">
@@ -4981,35 +5016,35 @@
         <v>39</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="F50" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="H50" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="I50" s="9" t="s">
         <v>237</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>239</v>
       </c>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
-      <c r="N50" s="13" t="s">
-        <v>240</v>
+      <c r="N50" s="14" t="s">
+        <v>238</v>
       </c>
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S50" s="9"/>
       <c r="T50" s="9"/>
@@ -5022,7 +5057,7 @@
       <c r="AA50" s="9"/>
       <c r="AB50" s="9"/>
       <c r="AC50" s="9"/>
-      <c r="AD50" s="17"/>
+      <c r="AD50" s="11"/>
       <c r="AE50" s="9"/>
       <c r="AF50" s="9"/>
       <c r="AG50" s="9"/>
@@ -5045,35 +5080,35 @@
         <v>39</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="F51" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="H51" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="I51" s="9" t="s">
         <v>237</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>239</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
-      <c r="N51" s="13" t="s">
-        <v>241</v>
+      <c r="N51" s="14" t="s">
+        <v>239</v>
       </c>
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
       <c r="Q51" s="9"/>
       <c r="R51" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S51" s="9"/>
       <c r="T51" s="9"/>
@@ -5086,7 +5121,7 @@
       <c r="AA51" s="9"/>
       <c r="AB51" s="9"/>
       <c r="AC51" s="9"/>
-      <c r="AD51" s="17"/>
+      <c r="AD51" s="11"/>
       <c r="AE51" s="9"/>
       <c r="AF51" s="9"/>
       <c r="AG51" s="9"/>
@@ -5109,35 +5144,35 @@
         <v>39</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="E52" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="E52" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="F52" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="G52" s="25" t="s">
-        <v>243</v>
+      <c r="F52" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>241</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
-      <c r="N52" s="13" t="s">
-        <v>244</v>
+      <c r="N52" s="14" t="s">
+        <v>242</v>
       </c>
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
       <c r="Q52" s="9"/>
       <c r="R52" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S52" s="9"/>
       <c r="T52" s="9"/>
@@ -5150,7 +5185,7 @@
       <c r="AA52" s="9"/>
       <c r="AB52" s="9"/>
       <c r="AC52" s="9"/>
-      <c r="AD52" s="17"/>
+      <c r="AD52" s="11"/>
       <c r="AE52" s="9"/>
       <c r="AF52" s="9"/>
       <c r="AG52" s="9"/>
@@ -5173,35 +5208,35 @@
         <v>39</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="E53" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="E53" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="F53" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="G53" s="25" t="s">
-        <v>243</v>
+      <c r="F53" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="G53" s="27" t="s">
+        <v>241</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
-      <c r="N53" s="13" t="s">
-        <v>245</v>
+      <c r="N53" s="14" t="s">
+        <v>243</v>
       </c>
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
       <c r="Q53" s="9"/>
       <c r="R53" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S53" s="9"/>
       <c r="T53" s="9"/>
@@ -5214,7 +5249,7 @@
       <c r="AA53" s="9"/>
       <c r="AB53" s="9"/>
       <c r="AC53" s="9"/>
-      <c r="AD53" s="17"/>
+      <c r="AD53" s="11"/>
       <c r="AE53" s="9"/>
       <c r="AF53" s="9"/>
       <c r="AG53" s="9"/>
@@ -5237,35 +5272,35 @@
         <v>39</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E54" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="G54" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="F54" s="25" t="s">
+      <c r="H54" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="G54" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>249</v>
-      </c>
       <c r="I54" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
-      <c r="N54" s="13" t="s">
-        <v>250</v>
+      <c r="N54" s="14" t="s">
+        <v>248</v>
       </c>
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
       <c r="Q54" s="9"/>
       <c r="R54" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S54" s="9"/>
       <c r="T54" s="9"/>
@@ -5278,7 +5313,7 @@
       <c r="AA54" s="9"/>
       <c r="AB54" s="9"/>
       <c r="AC54" s="9"/>
-      <c r="AD54" s="17"/>
+      <c r="AD54" s="11"/>
       <c r="AE54" s="9"/>
       <c r="AF54" s="9"/>
       <c r="AG54" s="9"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - EDU.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - EDU.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Canteen" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,13 +19,14 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AM$59</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AM$59</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AM$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AM$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AM$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AM$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Canteen!$A$1:$AM$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AM$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AM$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AM$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AM$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AM$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AM$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Canteen!$A$1:$AM$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AM$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AM$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AM$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AM$59</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="250">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -669,6 +670,9 @@
   </si>
   <si>
     <t xml:space="preserve">Холодильники: Максимум 15 СКЮ на дверь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUMMY</t>
   </si>
   <si>
     <t xml:space="preserve">number of SKUs/Number of cooler Doors</t>
@@ -904,8 +908,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF579D1C"/>
-        <bgColor rgb="FF808000"/>
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -1150,7 +1154,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FF66FFFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFC7CE"/>
@@ -1163,7 +1167,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF579D1C"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FFCC3300"/>
@@ -1187,48 +1191,48 @@
   <dimension ref="1:54"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N10" activeCellId="0" sqref="N10"/>
+      <selection pane="bottomRight" activeCell="H43" activeCellId="0" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="70.5910931174089"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="72.6275303643725"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="71.1255060728745"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="73.2712550607288"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="136.46963562753"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="83.0161943319838"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="46.4898785425101"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="137.647773279352"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="83.7651821862348"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="46.8097165991903"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="60.5222672064777"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="61.0566801619433"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
@@ -4408,7 +4412,9 @@
       <c r="H42" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="I42" s="9"/>
+      <c r="I42" s="25" t="s">
+        <v>201</v>
+      </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9" t="n">
         <v>1</v>
@@ -4437,7 +4443,7 @@
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
       <c r="AC42" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AD42" s="11" t="n">
         <v>0.045</v>
@@ -4475,16 +4481,16 @@
         <v>40</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9" t="n">
@@ -4508,7 +4514,7 @@
         <v>161</v>
       </c>
       <c r="X43" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y43" s="9"/>
       <c r="Z43" s="9"/>
@@ -4531,7 +4537,7 @@
         <v>37</v>
       </c>
       <c r="AK43" s="14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL43" s="24" t="n">
         <v>400</v>
@@ -4551,13 +4557,13 @@
         <v>40</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>60</v>
@@ -4569,16 +4575,16 @@
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O44" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="P44" s="9" t="s">
         <v>212</v>
-      </c>
-      <c r="P44" s="9" t="s">
-        <v>211</v>
       </c>
       <c r="Q44" s="9" t="s">
         <v>63</v>
@@ -4594,7 +4600,7 @@
         <v>161</v>
       </c>
       <c r="X44" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y44" s="9"/>
       <c r="Z44" s="9"/>
@@ -4633,13 +4639,13 @@
         <v>40</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H45" s="9" t="s">
         <v>60</v>
@@ -4651,13 +4657,13 @@
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N45" s="9" t="n">
         <v>5000034</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P45" s="9"/>
       <c r="Q45" s="9" t="s">
@@ -4674,7 +4680,7 @@
         <v>161</v>
       </c>
       <c r="X45" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y45" s="9"/>
       <c r="Z45" s="9"/>
@@ -4687,7 +4693,7 @@
       <c r="AE45" s="9"/>
       <c r="AF45" s="9"/>
       <c r="AG45" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AH45" s="9"/>
       <c r="AI45" s="9" t="n">
@@ -4715,16 +4721,16 @@
         <v>40</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9" t="n">
@@ -4748,7 +4754,7 @@
         <v>161</v>
       </c>
       <c r="X46" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y46" s="9"/>
       <c r="Z46" s="9"/>
@@ -4771,7 +4777,7 @@
         <v>40</v>
       </c>
       <c r="AK46" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL46" s="15" t="n">
         <v>400</v>
@@ -4791,13 +4797,13 @@
         <v>40</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>60</v>
@@ -4809,16 +4815,16 @@
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O47" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P47" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q47" s="9" t="s">
         <v>63</v>
@@ -4834,7 +4840,7 @@
         <v>161</v>
       </c>
       <c r="X47" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y47" s="9"/>
       <c r="Z47" s="9"/>
@@ -4873,16 +4879,16 @@
         <v>40</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9" t="n">
@@ -4891,13 +4897,13 @@
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N48" s="9" t="n">
         <v>5000034</v>
       </c>
       <c r="O48" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P48" s="9"/>
       <c r="Q48" s="9" t="s">
@@ -4914,7 +4920,7 @@
         <v>161</v>
       </c>
       <c r="X48" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y48" s="9"/>
       <c r="Z48" s="9"/>
@@ -4927,7 +4933,7 @@
       <c r="AE48" s="9"/>
       <c r="AF48" s="9"/>
       <c r="AG48" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AH48" s="9"/>
       <c r="AI48" s="9" t="n">
@@ -4952,22 +4958,22 @@
         <v>39</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E49" s="27" t="s">
         <v>187</v>
       </c>
       <c r="F49" s="27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
@@ -4978,7 +4984,7 @@
       <c r="P49" s="9"/>
       <c r="Q49" s="9"/>
       <c r="R49" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="S49" s="9"/>
       <c r="T49" s="9"/>
@@ -5016,35 +5022,35 @@
         <v>39</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="S50" s="9"/>
       <c r="T50" s="9"/>
@@ -5080,35 +5086,35 @@
         <v>39</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F51" s="27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
       <c r="N51" s="14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
       <c r="Q51" s="9"/>
       <c r="R51" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="S51" s="9"/>
       <c r="T51" s="9"/>
@@ -5144,35 +5150,35 @@
         <v>39</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E52" s="27" t="s">
         <v>156</v>
       </c>
       <c r="F52" s="27" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G52" s="27" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
       <c r="N52" s="14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
       <c r="Q52" s="9"/>
       <c r="R52" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="S52" s="9"/>
       <c r="T52" s="9"/>
@@ -5208,35 +5214,35 @@
         <v>39</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E53" s="27" t="s">
         <v>156</v>
       </c>
       <c r="F53" s="27" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
       <c r="N53" s="14" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
       <c r="Q53" s="9"/>
       <c r="R53" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="S53" s="9"/>
       <c r="T53" s="9"/>
@@ -5272,35 +5278,35 @@
         <v>39</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F54" s="27" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G54" s="27" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
       <c r="N54" s="14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
       <c r="Q54" s="9"/>
       <c r="R54" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="S54" s="9"/>
       <c r="T54" s="9"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - EDU.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - EDU.xlsx
@@ -12,9 +12,9 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AL$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AL$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AL$54</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AL$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AL$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AL$54</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="249">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -430,7 +430,7 @@
     <t xml:space="preserve">Fuze Berry-Hibiscus - 0.5L, Fuze Lemon-Lemongrass - 0.5L</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000259455, 5449000235947</t>
+    <t xml:space="preserve">5449000259455, 5449000235947, 5449000193124, 5449000189301</t>
   </si>
   <si>
     <t xml:space="preserve">Fuze Green Strawberry-Raspberry/Peach-Rose/Green Citrus - 0.5L</t>
@@ -663,10 +663,7 @@
     <t xml:space="preserve">Холодильники: Максимум 15 СКЮ на дверь</t>
   </si>
   <si>
-    <t xml:space="preserve">DUMMY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of SKUs/Number of cooler Doors</t>
+    <t xml:space="preserve">number of SKU per Door RANGE TOTAL</t>
   </si>
   <si>
     <t xml:space="preserve">BINARY </t>
@@ -896,8 +893,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF99FF"/>
-        <bgColor rgb="FFCC99FF"/>
+        <fgColor rgb="FFCCFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -915,7 +912,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFCCFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1124,7 +1121,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFCCFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -1135,7 +1132,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99FF"/>
+      <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFC7CE"/>
       <rgbColor rgb="FF3366FF"/>
@@ -1170,54 +1167,55 @@
   </sheetPr>
   <dimension ref="1:54"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C54" activeCellId="0" sqref="C54"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="69.3076923076923"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="71.3400809716599"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="134.004048582996"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="81.6234817813765"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="59.4493927125506"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0404858299595"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.412955465587"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8825910931174"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.9919028340081"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="67.582995951417"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="69.6356275303644"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.0283400809717"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.7692307692308"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.9919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.4048582995951"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="130.433198380567"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="79.5587044534413"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.919028340081"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="44.5910931174089"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.1336032388664"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.0890688259109"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="11.9919028340081"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.8744939271255"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="16.8663967611336"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.4372469635628"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="20.9676113360324"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.753036437247"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.2307692307692"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.2712550607287"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="15.1376518218623"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.1457489878543"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.6194331983806"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="58.1376518218624"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="20.9676113360324"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.5748987854251"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="9.1497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1336,7 +1334,7 @@
       <c r="AMI1" s="6"/>
       <c r="AMJ1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="n">
         <v>51</v>
       </c>
@@ -1394,7 +1392,7 @@
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="n">
         <v>52</v>
       </c>
@@ -1452,7 +1450,7 @@
       <c r="AK3" s="7"/>
       <c r="AL3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
         <v>53</v>
       </c>
@@ -1512,7 +1510,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
         <v>54</v>
       </c>
@@ -1574,7 +1572,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
         <v>55</v>
       </c>
@@ -1634,7 +1632,7 @@
       </c>
       <c r="AL6" s="11"/>
     </row>
-    <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="n">
         <v>1</v>
       </c>
@@ -1700,7 +1698,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
         <v>2</v>
       </c>
@@ -1780,7 +1778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
         <v>3</v>
       </c>
@@ -1860,7 +1858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
         <v>4</v>
       </c>
@@ -1940,7 +1938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="n">
         <v>5</v>
       </c>
@@ -2020,7 +2018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="n">
         <v>6</v>
       </c>
@@ -2098,7 +2096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="n">
         <v>7</v>
       </c>
@@ -2178,7 +2176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="n">
         <v>8</v>
       </c>
@@ -2258,7 +2256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="n">
         <v>9</v>
       </c>
@@ -2338,7 +2336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="n">
         <v>10</v>
       </c>
@@ -2418,7 +2416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="n">
         <v>11</v>
       </c>
@@ -2500,7 +2498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="n">
         <v>12</v>
       </c>
@@ -2566,7 +2564,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="n">
         <v>13</v>
       </c>
@@ -2646,7 +2644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="n">
         <v>14</v>
       </c>
@@ -2726,7 +2724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="n">
         <v>15</v>
       </c>
@@ -2806,7 +2804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="n">
         <v>16</v>
       </c>
@@ -2872,7 +2870,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="n">
         <v>17</v>
       </c>
@@ -2952,7 +2950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="n">
         <v>18</v>
       </c>
@@ -3032,7 +3030,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="n">
         <v>19</v>
       </c>
@@ -3112,7 +3110,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="n">
         <v>20</v>
       </c>
@@ -3192,7 +3190,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="n">
         <v>21</v>
       </c>
@@ -3258,7 +3256,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="n">
         <v>22</v>
       </c>
@@ -3338,7 +3336,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="n">
         <v>23</v>
       </c>
@@ -3418,7 +3416,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="n">
         <v>24</v>
       </c>
@@ -3498,7 +3496,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="n">
         <v>25</v>
       </c>
@@ -3578,7 +3576,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="n">
         <v>26</v>
       </c>
@@ -3658,7 +3656,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="n">
         <v>27</v>
       </c>
@@ -3738,7 +3736,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="n">
         <v>28</v>
       </c>
@@ -3818,7 +3816,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="n">
         <v>31</v>
       </c>
@@ -3900,7 +3898,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="n">
         <v>32</v>
       </c>
@@ -3982,7 +3980,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="n">
         <v>33</v>
       </c>
@@ -4054,7 +4052,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="n">
         <v>34</v>
       </c>
@@ -4126,7 +4124,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="n">
         <v>35</v>
       </c>
@@ -4200,7 +4198,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="n">
         <v>36</v>
       </c>
@@ -4280,7 +4278,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="n">
         <v>37</v>
       </c>
@@ -4360,7 +4358,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="n">
         <v>38</v>
       </c>
@@ -4385,9 +4383,7 @@
       <c r="H42" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="I42" s="23" t="s">
-        <v>202</v>
-      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7" t="n">
         <v>1</v>
@@ -4398,11 +4394,15 @@
       <c r="M42" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="N42" s="11"/>
+      <c r="N42" s="11" t="s">
+        <v>185</v>
+      </c>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
+      <c r="R42" s="7" t="s">
+        <v>186</v>
+      </c>
       <c r="S42" s="7"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -4416,7 +4416,7 @@
       <c r="AA42" s="7"/>
       <c r="AB42" s="7"/>
       <c r="AC42" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AD42" s="9" t="n">
         <v>0.045</v>
@@ -4440,7 +4440,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="n">
         <v>39</v>
       </c>
@@ -4454,16 +4454,16 @@
         <v>40</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="H43" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7" t="n">
@@ -4487,7 +4487,7 @@
         <v>163</v>
       </c>
       <c r="X43" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Y43" s="7"/>
       <c r="Z43" s="7"/>
@@ -4510,13 +4510,13 @@
         <v>37</v>
       </c>
       <c r="AK43" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AL43" s="22" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="n">
         <v>40</v>
       </c>
@@ -4530,13 +4530,13 @@
         <v>40</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F44" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>60</v>
@@ -4548,16 +4548,16 @@
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="N44" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="N44" s="7" t="s">
+      <c r="O44" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="O44" s="7" t="s">
-        <v>214</v>
-      </c>
       <c r="P44" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>63</v>
@@ -4573,7 +4573,7 @@
         <v>163</v>
       </c>
       <c r="X44" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Y44" s="7"/>
       <c r="Z44" s="7"/>
@@ -4598,7 +4598,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="n">
         <v>41</v>
       </c>
@@ -4612,13 +4612,13 @@
         <v>40</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F45" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>60</v>
@@ -4630,13 +4630,13 @@
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N45" s="7" t="n">
         <v>5000034</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P45" s="7"/>
       <c r="Q45" s="7" t="s">
@@ -4653,7 +4653,7 @@
         <v>163</v>
       </c>
       <c r="X45" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Y45" s="7"/>
       <c r="Z45" s="7"/>
@@ -4666,7 +4666,7 @@
       <c r="AE45" s="7"/>
       <c r="AF45" s="7"/>
       <c r="AG45" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AH45" s="7"/>
       <c r="AI45" s="7" t="n">
@@ -4680,7 +4680,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="n">
         <v>42</v>
       </c>
@@ -4694,16 +4694,16 @@
         <v>40</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F46" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="G46" s="7" t="s">
-        <v>220</v>
-      </c>
       <c r="H46" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7" t="n">
@@ -4727,7 +4727,7 @@
         <v>163</v>
       </c>
       <c r="X46" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Y46" s="7"/>
       <c r="Z46" s="7"/>
@@ -4750,13 +4750,13 @@
         <v>40</v>
       </c>
       <c r="AK46" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AL46" s="13" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="n">
         <v>43</v>
       </c>
@@ -4770,13 +4770,13 @@
         <v>40</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>60</v>
@@ -4788,16 +4788,16 @@
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
       <c r="M47" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="N47" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="N47" s="7" t="s">
+      <c r="O47" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="O47" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="Q47" s="7" t="s">
         <v>63</v>
@@ -4813,7 +4813,7 @@
         <v>163</v>
       </c>
       <c r="X47" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Y47" s="7"/>
       <c r="Z47" s="7"/>
@@ -4838,7 +4838,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="n">
         <v>44</v>
       </c>
@@ -4852,16 +4852,16 @@
         <v>40</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F48" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="H48" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7" t="n">
@@ -4870,13 +4870,13 @@
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
       <c r="M48" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N48" s="7" t="n">
         <v>5000034</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P48" s="7"/>
       <c r="Q48" s="7" t="s">
@@ -4893,7 +4893,7 @@
         <v>163</v>
       </c>
       <c r="X48" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Y48" s="7"/>
       <c r="Z48" s="7"/>
@@ -4906,7 +4906,7 @@
       <c r="AE48" s="7"/>
       <c r="AF48" s="7"/>
       <c r="AG48" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AH48" s="7"/>
       <c r="AI48" s="7" t="n">
@@ -4920,7 +4920,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="n">
         <v>45</v>
       </c>
@@ -4931,22 +4931,22 @@
         <v>39</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E49" s="25" t="s">
         <v>188</v>
       </c>
       <c r="F49" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="G49" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="G49" s="25" t="s">
+      <c r="H49" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="I49" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
@@ -4957,7 +4957,7 @@
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S49" s="7"/>
       <c r="T49" s="7"/>
@@ -4984,7 +4984,7 @@
       </c>
       <c r="AL49" s="7"/>
     </row>
-    <row r="50" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="n">
         <v>46</v>
       </c>
@@ -4995,35 +4995,35 @@
         <v>39</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F50" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="H50" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="I50" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
       <c r="N50" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
       <c r="R50" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S50" s="7"/>
       <c r="T50" s="7"/>
@@ -5048,7 +5048,7 @@
       <c r="AK50" s="7"/>
       <c r="AL50" s="7"/>
     </row>
-    <row r="51" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="n">
         <v>47</v>
       </c>
@@ -5059,35 +5059,35 @@
         <v>39</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F51" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="H51" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="I51" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
       <c r="N51" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O51" s="7"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S51" s="7"/>
       <c r="T51" s="7"/>
@@ -5112,7 +5112,7 @@
       <c r="AK51" s="7"/>
       <c r="AL51" s="7"/>
     </row>
-    <row r="52" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="n">
         <v>48</v>
       </c>
@@ -5123,35 +5123,35 @@
         <v>39</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E52" s="25" t="s">
         <v>157</v>
       </c>
       <c r="F52" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="G52" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="G52" s="25" t="s">
-        <v>243</v>
-      </c>
       <c r="H52" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="I52" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
       <c r="N52" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S52" s="7"/>
       <c r="T52" s="7"/>
@@ -5176,7 +5176,7 @@
       <c r="AK52" s="7"/>
       <c r="AL52" s="7"/>
     </row>
-    <row r="53" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="n">
         <v>49</v>
       </c>
@@ -5187,35 +5187,35 @@
         <v>39</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E53" s="25" t="s">
         <v>157</v>
       </c>
       <c r="F53" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="G53" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="G53" s="25" t="s">
-        <v>243</v>
-      </c>
       <c r="H53" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="I53" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
       <c r="N53" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O53" s="7"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S53" s="7"/>
       <c r="T53" s="7"/>
@@ -5240,7 +5240,7 @@
       <c r="AK53" s="7"/>
       <c r="AL53" s="7"/>
     </row>
-    <row r="54" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="n">
         <v>50</v>
       </c>
@@ -5251,35 +5251,35 @@
         <v>39</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F54" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="F54" s="25" t="s">
+      <c r="G54" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="G54" s="25" t="s">
-        <v>248</v>
-      </c>
       <c r="H54" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="I54" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
       <c r="N54" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O54" s="7"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S54" s="7"/>
       <c r="T54" s="7"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - EDU.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - EDU.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Canteen" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AL$54</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AL$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AL$54</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="252">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -810,6 +811,15 @@
   <si>
     <t xml:space="preserve">AtWork
 No_AtWork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer</t>
   </si>
 </sst>
 </file>
@@ -1121,52 +1131,52 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:54"/>
+  <dimension ref="1:55"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.0404858299595"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.412955465587"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="11.9919028340081"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="67.582995951417"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="69.6356275303644"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="40.0283400809717"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.7692307692308"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="8.9919028340081"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="13.4048582995951"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="130.433198380567"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="79.5587044534413"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="18.919028340081"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="44.5910931174089"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="18.1336032388664"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="13.0890688259109"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="11.9919028340081"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="13.8744939271255"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="16.8663967611336"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="21.4372469635628"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="21.753036437247"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="19.2307692307692"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="24.2712550607287"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="2" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="12.1457489878543"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="12.6194331983806"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="58.1376518218624"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="7.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="68.1295546558705"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="70.2712550607288"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="131.647773279352"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="80.2307692307692"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="21.6396761133603"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="2" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="58.5951417004049"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="2" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5258,6 +5268,66 @@
       <c r="AK54" s="9"/>
       <c r="AL54" s="9"/>
     </row>
+    <row r="55" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="8" t="n">
+        <v>401</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="F55" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="9"/>
+      <c r="Y55" s="9"/>
+      <c r="Z55" s="9"/>
+      <c r="AA55" s="9"/>
+      <c r="AB55" s="9"/>
+      <c r="AC55" s="9"/>
+      <c r="AD55" s="11"/>
+      <c r="AE55" s="9"/>
+      <c r="AF55" s="9"/>
+      <c r="AG55" s="9"/>
+      <c r="AH55" s="9"/>
+      <c r="AI55" s="9"/>
+      <c r="AJ55" s="9" t="n">
+        <v>401</v>
+      </c>
+      <c r="AK55" s="9"/>
+      <c r="AL55" s="9"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AL54"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - EDU.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - EDU.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Canteen" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,7 +13,6 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AL$54</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AL$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AL$54</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="249">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -811,15 +810,6 @@
   <si>
     <t xml:space="preserve">AtWork
 No_AtWork</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integer</t>
   </si>
 </sst>
 </file>
@@ -1131,52 +1121,52 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:55"/>
+  <dimension ref="1:54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="68.1295546558705"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="70.2712550607288"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="131.647773279352"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="80.2307692307692"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="44.8825910931174"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="2" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="58.5951417004049"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="7.60728744939271"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.0404858299595"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.412955465587"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.8825910931174"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="11.9919028340081"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="67.582995951417"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="69.6356275303644"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="40.0283400809717"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.7692307692308"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="8.9919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="13.4048582995951"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="130.433198380567"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="79.5587044534413"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="18.919028340081"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="44.5910931174089"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="18.1336032388664"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="13.0890688259109"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="11.9919028340081"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="13.8744939271255"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="16.8663967611336"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="21.4372469635628"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="20.9676113360324"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="21.753036437247"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="19.2307692307692"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="24.2712550607287"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="2" width="15.1376518218623"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="12.1457489878543"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="12.6194331983806"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="58.1376518218624"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="20.9676113360324"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="7.5748987854251"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="2" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="9.1497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5268,66 +5258,6 @@
       <c r="AK54" s="9"/>
       <c r="AL54" s="9"/>
     </row>
-    <row r="55" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8" t="n">
-        <v>401</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="G55" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="S55" s="9"/>
-      <c r="T55" s="9"/>
-      <c r="U55" s="9"/>
-      <c r="V55" s="9"/>
-      <c r="W55" s="9"/>
-      <c r="X55" s="9"/>
-      <c r="Y55" s="9"/>
-      <c r="Z55" s="9"/>
-      <c r="AA55" s="9"/>
-      <c r="AB55" s="9"/>
-      <c r="AC55" s="9"/>
-      <c r="AD55" s="11"/>
-      <c r="AE55" s="9"/>
-      <c r="AF55" s="9"/>
-      <c r="AG55" s="9"/>
-      <c r="AH55" s="9"/>
-      <c r="AI55" s="9"/>
-      <c r="AJ55" s="9" t="n">
-        <v>401</v>
-      </c>
-      <c r="AK55" s="9"/>
-      <c r="AL55" s="9"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:AL54"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - EDU.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - EDU.xlsx
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AL$54</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AL$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AL$54</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="252">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -811,12 +812,21 @@
     <t xml:space="preserve">AtWork
 No_AtWork</t>
   </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
@@ -825,6 +835,7 @@
     <numFmt numFmtId="169" formatCode="0.00%"/>
     <numFmt numFmtId="170" formatCode="@"/>
     <numFmt numFmtId="171" formatCode="0.0000000000000000%"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -954,7 +965,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1039,6 +1050,22 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1121,52 +1148,54 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:54"/>
+  <dimension ref="1:55"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="Z1" activeCellId="0" sqref="Z1"/>
+      <selection pane="bottomLeft" activeCell="Z55" activeCellId="0" sqref="55:55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.0404858299595"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.412955465587"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="11.9919028340081"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="67.582995951417"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="69.6356275303644"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="40.0283400809717"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.7692307692308"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="8.9919028340081"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="13.4048582995951"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="130.433198380567"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="79.5587044534413"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="18.919028340081"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="44.5910931174089"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="18.1336032388664"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="13.0890688259109"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="11.9919028340081"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="13.8744939271255"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="16.8663967611336"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="21.4372469635628"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="21.753036437247"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="19.2307692307692"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="24.2712550607287"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="2" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="12.1457489878543"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="12.6194331983806"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="58.1376518218624"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="7.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="68.1295546558705"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="70.2712550607288"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="131.647773279352"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="80.2307692307692"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="21.6396761133603"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="2" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="58.5951417004049"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="2" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5258,6 +5287,67 @@
       <c r="AK54" s="9"/>
       <c r="AL54" s="9"/>
     </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="8" t="n">
+        <v>401</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="G55" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="8"/>
+      <c r="AD55" s="24"/>
+      <c r="AE55" s="8"/>
+      <c r="AF55" s="8"/>
+      <c r="AG55" s="8"/>
+      <c r="AH55" s="8"/>
+      <c r="AI55" s="8"/>
+      <c r="AJ55" s="8" t="n">
+        <v>401</v>
+      </c>
+      <c r="AK55" s="8"/>
+      <c r="AL55" s="8"/>
+      <c r="AMJ55" s="0"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AL54"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - EDU.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - EDU.xlsx
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AL$54</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AL$54</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AL$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AL$54</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -219,7 +220,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Coca-Cola - 0.25L Slim/Coca-Cola - 0.33L Glass</t>
+    <t xml:space="preserve">Coca-Cola - 0.25L Slim/0.33L Glass</t>
   </si>
   <si>
     <t xml:space="preserve">Кока-Кола - 0.25л слим/Кока-Кола - 0.33л стекло</t>
@@ -249,7 +250,7 @@
     <t xml:space="preserve">BINARY</t>
   </si>
   <si>
-    <t xml:space="preserve">Coca-Cola Zero/Cherry - 0.25L /Coca-Cola Zero - 0.33L Glass</t>
+    <t xml:space="preserve">Coca-Cola Zero - 0.25L Slim/0.33L Glass/Coca-Cola Zero Cherry - 0.25L Slim</t>
   </si>
   <si>
     <t xml:space="preserve">Кока-Кола Зеро/Вишня - 0.25л слим/Кока-Кола Зеро - 0.33л стекло</t>
@@ -297,7 +298,7 @@
     <t xml:space="preserve">Спрайт - 0.5л</t>
   </si>
   <si>
-    <t xml:space="preserve">Coca-Cola Zero/Zero Cherry - 0.5L</t>
+    <t xml:space="preserve">Coca-Cola Zero/Coca-Cola Zero Cherry - 0.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Кока-Кола Зеро/Вишня - 0.5л</t>
@@ -315,7 +316,7 @@
     <t xml:space="preserve">Фанта Апельсин - 0.5л</t>
   </si>
   <si>
-    <t xml:space="preserve">Fanta Citrus/Pear - 0.5L - 0.5L</t>
+    <t xml:space="preserve">Fanta Citrus - 0.5L/Fanta Pear - 0.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Фанта Цитрус/Груша - 0.5л - 0.5л</t>
@@ -357,7 +358,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">BonAqua Still/Carb 0-33/0.5L SmartWater Still-0.6L</t>
+    <t xml:space="preserve">BonAqua Still/Carb - 0.5L/0.33L Glass/SmartWater Still - 0.6L</t>
   </si>
   <si>
     <t xml:space="preserve">БонАква Негаз/Газ-0.5л /Смарт вода-0.6л/БонАква Негаз/ Газ-0.33л стекло</t>
@@ -421,7 +422,7 @@
     <t xml:space="preserve">4607042430879, 5449000027450</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Berry-Hibiscus/Lemon-Lemongrass - 0.5L</t>
+    <t xml:space="preserve">Fuze Berry-Hibiscus - 0.5L/Fuze Lemon-Lemongrass - 0.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лесн.ягоды/Лимон - 0.5л</t>
@@ -433,7 +434,7 @@
     <t xml:space="preserve">5449000259455, 5449000235947, 5449000193124, 5449000189301</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Green Strawberry-Raspberry/Peach-Rose/Green Citrus - 0.5L</t>
+    <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 0.5L/Peach-Rose/Green Citrus - 0.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Зеленый Клубника/Персик/Зеленый Цитрус - 0.5л</t>
@@ -461,7 +462,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Dobriy - Apple -0.33L/Rich - Apple - 0.3L/0.2L Glass</t>
+    <t xml:space="preserve">Dobriy - Apple - 0.33L/Rich - Apple - 0.3L/0.2L Glass</t>
   </si>
   <si>
     <t xml:space="preserve">Добрый - Яблоко - 0.33л/Рич - Яблоко - 0.3л/0.2л стекло</t>
@@ -485,7 +486,7 @@
     <t xml:space="preserve">Палпи - Манго Ананас - 0.45л</t>
   </si>
   <si>
-    <t xml:space="preserve">Dobriy - Multifruit - 0.33L/ Rich - Orange - 0.2L Glass/0.3L </t>
+    <t xml:space="preserve">Dobriy - Multifruit - 0.33L/Rich - Orange - 0.2L Glass/0.3L </t>
   </si>
   <si>
     <t xml:space="preserve">Добрый-Мультифрут-0.33л/ Рич- Апельсин-0.2л стекло/ 0.3л </t>
@@ -497,7 +498,7 @@
     <t xml:space="preserve">4607174579286, 4650075420362, 4650075421024</t>
   </si>
   <si>
-    <t xml:space="preserve">Dobriy-Tomato-0.33L /Rich-Cherry-0.2L Glass/0.3L </t>
+    <t xml:space="preserve">Dobriy - Tomato - 0.33L/Rich - Cherry - 0.2L Glass/0.3L </t>
   </si>
   <si>
     <t xml:space="preserve">Добрый-Томат-0.33л/ Рич-Вишня-0.2л стекло/0.3л </t>
@@ -518,7 +519,7 @@
     <t xml:space="preserve">Pulpy - Tropical - 0.45L, Pulpy - Guava - 0.45L, Pulpy - Watermelon Strawberry - 0.45L</t>
   </si>
   <si>
-    <t xml:space="preserve">Dobriy-Peach-Apple/Orange-0.33L/Rich-Peach/Pineapple/Grapefruit/Tomato-0.2L Glass</t>
+    <t xml:space="preserve">Dobriy - Peach-Apple/Orange - 0.33L/Rich - Peach/Pineapple/Grapefruit/Tomato - 0.2L Glass</t>
   </si>
   <si>
     <t xml:space="preserve">Добрый-Персик/Апельсин-0.33л /Рич-Персик/Ананас/Грейпфру/Томат-0.2л стекло</t>
@@ -1208,47 +1209,47 @@
   </sheetPr>
   <dimension ref="1:56"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="N38" activeCellId="0" sqref="N38"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F1" activeCellId="0" sqref="F:F"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="69.3076923076923"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="71.4493927125506"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="41.0283400809717"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="69.9473684210526"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="72.0890688259109"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="41.3481781376518"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="72.9271255060729"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="81.7327935222672"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="73.4817813765182"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="82.4817813765182"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="2" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="2" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="59.4493927125506"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="2" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="59.9878542510121"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="2" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="2" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="2" width="10.6032388663968"/>
@@ -58606,7 +58607,7 @@
       <c r="AMI54" s="0"/>
       <c r="AMJ54" s="0"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="n">
         <v>51</v>
       </c>
@@ -59658,7 +59659,7 @@
       <c r="AMI55" s="0"/>
       <c r="AMJ55" s="0"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="n">
         <v>401</v>
       </c>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - EDU.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - EDU.xlsx
@@ -16,6 +16,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AL$54</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AL$54</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AL$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Canteen!$A$1:$AL$54</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -250,7 +251,7 @@
     <t xml:space="preserve">BINARY</t>
   </si>
   <si>
-    <t xml:space="preserve">Coca-Cola Zero - 0.25L Slim/0.33L Glass/Coca-Cola Zero Cherry - 0.25L Slim</t>
+    <t xml:space="preserve">Coca-Cola Zero/Cherry - 0.25L /Coca-Cola Zero - 0.33L Glass</t>
   </si>
   <si>
     <t xml:space="preserve">Кока-Кола Зеро/Вишня - 0.25л слим/Кока-Кола Зеро - 0.33л стекло</t>
@@ -1008,7 +1009,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1072,6 +1073,10 @@
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -1212,44 +1217,44 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F1" activeCellId="0" sqref="F:F"/>
+      <selection pane="bottomLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="69.9473684210526"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="72.0890688259109"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="41.3481781376518"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="70.5910931174089"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="72.7327935222672"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="41.668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="73.4817813765182"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="82.4817813765182"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="46.0607287449393"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="74.1255060728745"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="83.1255060728745"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="46.4898785425101"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="2" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="2" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="59.9878542510121"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="2" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="60.5222672064777"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="2" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="2" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="2" width="10.6032388663968"/>
@@ -9721,7 +9726,7 @@
       <c r="E9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="16" t="s">
         <v>68</v>
       </c>
       <c r="G9" s="15" t="s">
@@ -16133,7 +16138,7 @@
       <c r="M15" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="N15" s="16" t="n">
+      <c r="N15" s="17" t="n">
         <v>40822938</v>
       </c>
       <c r="O15" s="13"/>
@@ -17199,7 +17204,7 @@
       <c r="M16" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="N16" s="17" t="s">
+      <c r="N16" s="18" t="s">
         <v>93</v>
       </c>
       <c r="O16" s="13"/>
@@ -24635,7 +24640,7 @@
       <c r="M23" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="N23" s="18" t="s">
+      <c r="N23" s="19" t="s">
         <v>119</v>
       </c>
       <c r="O23" s="9"/>
@@ -25701,7 +25706,7 @@
       <c r="M24" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="N24" s="18" t="s">
+      <c r="N24" s="19" t="s">
         <v>122</v>
       </c>
       <c r="O24" s="9"/>
@@ -35322,7 +35327,7 @@
       <c r="AJ33" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="AK33" s="19"/>
+      <c r="AK33" s="20"/>
       <c r="AL33" s="9" t="n">
         <v>21</v>
       </c>
@@ -42767,7 +42772,7 @@
         <v>34</v>
       </c>
       <c r="AK40" s="9"/>
-      <c r="AL40" s="20" t="n">
+      <c r="AL40" s="21" t="n">
         <v>312</v>
       </c>
       <c r="AM40" s="0"/>
@@ -43833,7 +43838,7 @@
         <v>35</v>
       </c>
       <c r="AK41" s="9"/>
-      <c r="AL41" s="20" t="n">
+      <c r="AL41" s="21" t="n">
         <v>312</v>
       </c>
       <c r="AM41" s="0"/>
@@ -44901,7 +44906,7 @@
         <v>36</v>
       </c>
       <c r="AK42" s="9"/>
-      <c r="AL42" s="20" t="n">
+      <c r="AL42" s="21" t="n">
         <v>312</v>
       </c>
       <c r="AM42" s="0"/>
@@ -45963,7 +45968,7 @@
       <c r="AK43" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="AL43" s="20" t="n">
+      <c r="AL43" s="21" t="n">
         <v>400</v>
       </c>
       <c r="AM43" s="0"/>
@@ -52300,13 +52305,13 @@
       <c r="D49" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="E49" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="F49" s="20" t="s">
+      <c r="F49" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="G49" s="20" t="s">
+      <c r="G49" s="21" t="s">
         <v>230</v>
       </c>
       <c r="H49" s="9" t="s">
@@ -53353,7 +53358,7 @@
       <c r="E50" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="F50" s="20" t="s">
+      <c r="F50" s="21" t="s">
         <v>234</v>
       </c>
       <c r="G50" s="9" t="s">
@@ -54407,7 +54412,7 @@
       <c r="E51" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="F51" s="20" t="s">
+      <c r="F51" s="21" t="s">
         <v>234</v>
       </c>
       <c r="G51" s="9" t="s">
@@ -55458,13 +55463,13 @@
       <c r="D52" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E52" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="F52" s="20" t="s">
+      <c r="F52" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="G52" s="20" t="s">
+      <c r="G52" s="21" t="s">
         <v>242</v>
       </c>
       <c r="H52" s="9" t="s">
@@ -56512,13 +56517,13 @@
       <c r="D53" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E53" s="20" t="s">
+      <c r="E53" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="F53" s="20" t="s">
+      <c r="F53" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="G53" s="20" t="s">
+      <c r="G53" s="21" t="s">
         <v>242</v>
       </c>
       <c r="H53" s="9" t="s">
@@ -57569,10 +57574,10 @@
       <c r="E54" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="F54" s="20" t="s">
+      <c r="F54" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="G54" s="20" t="s">
+      <c r="G54" s="21" t="s">
         <v>247</v>
       </c>
       <c r="H54" s="9" t="s">
@@ -58620,26 +58625,26 @@
       <c r="D55" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E55" s="21" t="s">
+      <c r="E55" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="F55" s="21" t="s">
+      <c r="F55" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="G55" s="21" t="s">
+      <c r="G55" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="H55" s="22" t="s">
+      <c r="H55" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="I55" s="22" t="s">
+      <c r="I55" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="23"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
       <c r="M55" s="8"/>
-      <c r="N55" s="24" t="s">
+      <c r="N55" s="25" t="s">
         <v>255</v>
       </c>
       <c r="O55" s="8"/>
@@ -58655,13 +58660,13 @@
       <c r="W55" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="X55" s="25"/>
+      <c r="X55" s="26"/>
       <c r="Y55" s="8"/>
       <c r="Z55" s="8"/>
       <c r="AA55" s="8"/>
       <c r="AB55" s="8"/>
       <c r="AC55" s="8"/>
-      <c r="AD55" s="26"/>
+      <c r="AD55" s="27"/>
       <c r="AE55" s="8"/>
       <c r="AF55" s="8"/>
       <c r="AG55" s="8"/>
@@ -59672,11 +59677,11 @@
       <c r="D56" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27" t="s">
+      <c r="E56" s="28"/>
+      <c r="F56" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="G56" s="27" t="s">
+      <c r="G56" s="28" t="s">
         <v>258</v>
       </c>
       <c r="H56" s="8" t="s">
@@ -59685,11 +59690,11 @@
       <c r="I56" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="23"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
       <c r="M56" s="8"/>
-      <c r="N56" s="28"/>
+      <c r="N56" s="29"/>
       <c r="O56" s="8"/>
       <c r="P56" s="8"/>
       <c r="Q56" s="8"/>
@@ -59707,7 +59712,7 @@
       <c r="AA56" s="8"/>
       <c r="AB56" s="8"/>
       <c r="AC56" s="8"/>
-      <c r="AD56" s="26"/>
+      <c r="AD56" s="27"/>
       <c r="AE56" s="8"/>
       <c r="AF56" s="8"/>
       <c r="AG56" s="8"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - EDU.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - EDU.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462558BE-EE6D-4F26-8F03-AD44F2DB50C7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086289BB-0BF3-4FB5-B32F-B1EEB7969B31}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="9024" tabRatio="611" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="611" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Canteen" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="263">
   <si>
     <t>Sorting</t>
   </si>
@@ -217,9 +217,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Panoramic Photo</t>
-  </si>
-  <si>
     <t>BINARY</t>
   </si>
   <si>
@@ -864,7 +861,13 @@
     <t>Bufet line, SS_Bufet line</t>
   </si>
   <si>
-    <t>Menu Board, Cash Zone, SS_Menu Board, SS_Cash Zone</t>
+    <t>Panoramic Photo, SS_Panoramic Photo</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler, SS_Panoramic photo of Cooler - Horeca</t>
+  </si>
+  <si>
+    <t>Menu Board, Cash Zone, SS_Cash Zone - Canteen, QSR, SS_Menu Board - Canteen, QSR</t>
   </si>
 </sst>
 </file>
@@ -1348,7 +1351,7 @@
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" topLeftCell="U1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X47" sqref="X47"/>
+      <selection pane="bottomLeft" activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1688,13 +1691,13 @@
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
       <c r="AC4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD4" s="5">
         <v>3.2480000000000002E-2</v>
@@ -1731,10 +1734,10 @@
         <v>43</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>50</v>
@@ -1746,10 +1749,10 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -1768,13 +1771,13 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD5" s="5">
         <v>3.2480000000000002E-2</v>
@@ -1811,10 +1814,10 @@
         <v>43</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>50</v>
@@ -1826,10 +1829,10 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
@@ -1848,13 +1851,13 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD6" s="5">
         <v>3.2480000000000002E-2</v>
@@ -1891,10 +1894,10 @@
         <v>43</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>50</v>
@@ -1906,10 +1909,10 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -1928,13 +1931,13 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD7" s="5">
         <v>2.0999E-2</v>
@@ -1971,10 +1974,10 @@
         <v>43</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>50</v>
@@ -1986,10 +1989,10 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -2008,13 +2011,13 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD8" s="5">
         <v>2.0999E-2</v>
@@ -2051,10 +2054,10 @@
         <v>43</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>50</v>
@@ -2066,7 +2069,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N9" s="4">
         <v>5449000131836</v>
@@ -2088,13 +2091,13 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD9" s="5">
         <v>2.0999E-2</v>
@@ -2131,10 +2134,10 @@
         <v>43</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>50</v>
@@ -2146,10 +2149,10 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
@@ -2168,13 +2171,13 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD10" s="5">
         <v>2.0999E-2</v>
@@ -2211,10 +2214,10 @@
         <v>43</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>50</v>
@@ -2226,10 +2229,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -2248,13 +2251,13 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD11" s="5">
         <v>2.0999E-2</v>
@@ -2291,10 +2294,10 @@
         <v>43</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>50</v>
@@ -2306,10 +2309,10 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -2328,7 +2331,7 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
@@ -2369,10 +2372,10 @@
         <v>43</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>50</v>
@@ -2384,10 +2387,10 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -2406,13 +2409,13 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD13" s="5">
         <v>2.0999E-2</v>
@@ -2449,10 +2452,10 @@
         <v>43</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>50</v>
@@ -2464,10 +2467,10 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N14" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -2486,13 +2489,13 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD14" s="5">
         <v>1.2272999999999999E-2</v>
@@ -2526,13 +2529,13 @@
         <v>40</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>46</v>
@@ -2572,7 +2575,7 @@
         <v>12</v>
       </c>
       <c r="AK15" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL15" s="3">
         <v>300</v>
@@ -2592,13 +2595,13 @@
         <v>40</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>50</v>
@@ -2610,10 +2613,10 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -2632,13 +2635,13 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD16" s="5">
         <v>3.2488000000000003E-2</v>
@@ -2672,13 +2675,13 @@
         <v>40</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>50</v>
@@ -2690,10 +2693,10 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N17" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -2712,13 +2715,13 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD17" s="5">
         <v>9.6419999999999995E-3</v>
@@ -2752,13 +2755,13 @@
         <v>40</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>50</v>
@@ -2770,10 +2773,10 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N18" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
@@ -2792,13 +2795,13 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD18" s="5">
         <v>9.6419999999999995E-3</v>
@@ -2832,13 +2835,13 @@
         <v>40</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>46</v>
@@ -2878,7 +2881,7 @@
         <v>16</v>
       </c>
       <c r="AK19" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AL19" s="3">
         <v>300</v>
@@ -2898,13 +2901,13 @@
         <v>40</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>50</v>
@@ -2916,10 +2919,10 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="N20" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="N20" s="10" t="s">
-        <v>113</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -2938,13 +2941,13 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
       <c r="AC20" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD20" s="5">
         <v>3.2488000000000003E-2</v>
@@ -2978,13 +2981,13 @@
         <v>40</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>50</v>
@@ -2996,10 +2999,10 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -3018,13 +3021,13 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD21" s="5">
         <v>3.2488000000000003E-2</v>
@@ -3058,13 +3061,13 @@
         <v>40</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>50</v>
@@ -3076,10 +3079,10 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N22" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -3098,13 +3101,13 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD22" s="5">
         <v>9.6430000000000005E-3</v>
@@ -3138,13 +3141,13 @@
         <v>40</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>50</v>
@@ -3156,10 +3159,10 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="N23" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -3178,13 +3181,13 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
       <c r="AC23" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD23" s="5">
         <v>9.6430000000000005E-3</v>
@@ -3218,13 +3221,13 @@
         <v>40</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F24" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>46</v>
@@ -3264,7 +3267,7 @@
         <v>21</v>
       </c>
       <c r="AK24" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL24" s="3">
         <v>300</v>
@@ -3284,13 +3287,13 @@
         <v>40</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>50</v>
@@ -3302,10 +3305,10 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -3324,13 +3327,13 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD25" s="5">
         <v>3.2488000000000003E-2</v>
@@ -3364,13 +3367,13 @@
         <v>40</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>50</v>
@@ -3382,10 +3385,10 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -3404,13 +3407,13 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD26" s="5">
         <v>3.2488000000000003E-2</v>
@@ -3444,13 +3447,13 @@
         <v>40</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>50</v>
@@ -3462,7 +3465,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N27" s="4">
         <v>4607174577787</v>
@@ -3484,13 +3487,13 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD27" s="5">
         <v>2.0999E-2</v>
@@ -3524,13 +3527,13 @@
         <v>40</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F28" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>50</v>
@@ -3542,7 +3545,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N28" s="4">
         <v>4650075420980</v>
@@ -3564,13 +3567,13 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD28" s="5">
         <v>2.0999E-2</v>
@@ -3604,13 +3607,13 @@
         <v>40</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>50</v>
@@ -3622,10 +3625,10 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -3644,13 +3647,13 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD29" s="5">
         <v>2.0999E-2</v>
@@ -3684,13 +3687,13 @@
         <v>40</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F30" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>50</v>
@@ -3702,10 +3705,10 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="N30" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
@@ -3724,13 +3727,13 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
       <c r="AC30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD30" s="5">
         <v>9.6430000000000005E-3</v>
@@ -3764,13 +3767,13 @@
         <v>40</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F31" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>50</v>
@@ -3782,10 +3785,10 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="N31" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
@@ -3804,13 +3807,13 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
       <c r="AC31" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD31" s="5">
         <v>9.6439999999999998E-3</v>
@@ -3845,10 +3848,10 @@
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>40</v>
@@ -3903,10 +3906,10 @@
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>40</v>
@@ -3962,16 +3965,16 @@
         <v>40</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -3982,7 +3985,7 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
@@ -3996,7 +3999,7 @@
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AD34" s="5">
         <v>0.13500000000000001</v>
@@ -4004,7 +4007,7 @@
       <c r="AE34" s="3"/>
       <c r="AF34" s="3"/>
       <c r="AG34" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AH34" s="3"/>
       <c r="AI34" s="3">
@@ -4014,7 +4017,7 @@
         <v>31</v>
       </c>
       <c r="AK34" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AL34" s="3">
         <v>311</v>
@@ -4034,16 +4037,16 @@
         <v>40</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F35" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3">
@@ -4052,7 +4055,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N35" s="4"/>
       <c r="O35" s="3"/>
@@ -4064,7 +4067,7 @@
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
@@ -4072,13 +4075,13 @@
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
       <c r="AC35" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD35" s="5"/>
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
       <c r="AG35" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AH35" s="3"/>
       <c r="AI35" s="3">
@@ -4106,16 +4109,16 @@
         <v>40</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F36" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3">
@@ -4124,23 +4127,23 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
@@ -4148,7 +4151,7 @@
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
       <c r="AC36" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD36" s="5"/>
       <c r="AE36" s="3"/>
@@ -4181,10 +4184,10 @@
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>40</v>
@@ -4222,7 +4225,7 @@
         <v>312</v>
       </c>
       <c r="AK37" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL37" s="3">
         <v>310</v>
@@ -4242,16 +4245,16 @@
         <v>40</v>
       </c>
       <c r="E38" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3">
@@ -4261,13 +4264,13 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
@@ -4277,14 +4280,14 @@
         <v>55</v>
       </c>
       <c r="X38" s="3" t="s">
-        <v>180</v>
+        <v>261</v>
       </c>
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
       <c r="AC38" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD38" s="5">
         <v>4.4999999999999998E-2</v>
@@ -4292,10 +4295,10 @@
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
       <c r="AG38" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AH38" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AI38" s="3">
         <v>2</v>
@@ -4322,16 +4325,16 @@
         <v>40</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F39" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3">
@@ -4340,23 +4343,23 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
@@ -4364,7 +4367,7 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AD39" s="5">
         <v>4.4999999999999998E-2</v>
@@ -4372,10 +4375,10 @@
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
       <c r="AG39" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AH39" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AI39" s="3">
         <v>2</v>
@@ -4402,16 +4405,16 @@
         <v>40</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F40" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -4422,23 +4425,23 @@
         <v>15</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
@@ -4446,7 +4449,7 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AD40" s="5">
         <v>4.4999999999999998E-2</v>
@@ -4454,10 +4457,10 @@
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
       <c r="AG40" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AH40" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AI40" s="3">
         <v>2</v>
@@ -4485,10 +4488,10 @@
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>40</v>
@@ -4526,7 +4529,7 @@
         <v>400</v>
       </c>
       <c r="AK41" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AL41" s="3"/>
     </row>
@@ -4544,13 +4547,13 @@
         <v>40</v>
       </c>
       <c r="E42" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>50</v>
@@ -4562,37 +4565,37 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="N42" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="O42" s="3"/>
       <c r="P42" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>53</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
       <c r="AC42" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD42" s="5">
         <v>0.09</v>
@@ -4617,7 +4620,7 @@
         <v>36</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>39</v>
@@ -4626,16 +4629,16 @@
         <v>40</v>
       </c>
       <c r="E43" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="H43" s="9" t="s">
         <v>204</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>205</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3">
@@ -4656,17 +4659,17 @@
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
       <c r="AC43" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD43" s="5">
         <v>0.1</v>
@@ -4682,7 +4685,7 @@
         <v>678</v>
       </c>
       <c r="AK43" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AL43" s="3">
         <v>400</v>
@@ -4702,16 +4705,16 @@
         <v>40</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F44" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="H44" s="11" t="s">
         <v>208</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>209</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3">
@@ -4732,17 +4735,17 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
       <c r="AC44" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD44" s="5"/>
       <c r="AE44" s="3"/>
@@ -4756,7 +4759,7 @@
         <v>37</v>
       </c>
       <c r="AK44" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AL44" s="3">
         <v>678</v>
@@ -4776,13 +4779,13 @@
         <v>40</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F45" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>50</v>
@@ -4794,39 +4797,39 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="N45" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="O45" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="P45" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>53</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S45" s="3"/>
       <c r="T45" s="9"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
       <c r="AC45" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD45" s="5"/>
       <c r="AE45" s="3"/>
@@ -4858,13 +4861,13 @@
         <v>40</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F46" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>50</v>
@@ -4876,13 +4879,13 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N46" s="4">
         <v>5000034</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P46" s="3"/>
       <c r="Q46" s="3" t="s">
@@ -4896,23 +4899,23 @@
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
       <c r="AC46" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD46" s="5"/>
       <c r="AE46" s="3"/>
       <c r="AF46" s="3"/>
       <c r="AG46" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH46" s="3"/>
       <c r="AI46" s="3">
@@ -4940,16 +4943,16 @@
         <v>40</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F47" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>221</v>
-      </c>
       <c r="H47" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3">
@@ -4970,17 +4973,17 @@
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X47" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
       <c r="AC47" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD47" s="5"/>
       <c r="AE47" s="3"/>
@@ -4994,7 +4997,7 @@
         <v>40</v>
       </c>
       <c r="AK47" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AL47" s="3">
         <v>678</v>
@@ -5014,13 +5017,13 @@
         <v>40</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F48" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>50</v>
@@ -5033,36 +5036,36 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>53</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
       <c r="AC48" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD48" s="5"/>
       <c r="AE48" s="3"/>
@@ -5094,13 +5097,13 @@
         <v>40</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F49" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="H49" s="9" t="s">
         <v>50</v>
@@ -5112,13 +5115,13 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N49" s="4">
         <v>5000034</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P49" s="3"/>
       <c r="Q49" s="3" t="s">
@@ -5132,23 +5135,23 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X49" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
       <c r="AC49" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD49" s="5"/>
       <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
       <c r="AG49" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH49" s="3"/>
       <c r="AI49" s="3">
@@ -5173,22 +5176,22 @@
         <v>39</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -5199,7 +5202,7 @@
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
@@ -5222,7 +5225,7 @@
         <v>43</v>
       </c>
       <c r="AK50" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL50" s="3"/>
     </row>
@@ -5237,37 +5240,37 @@
         <v>39</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F51" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="N51" s="8" t="s">
         <v>238</v>
-      </c>
-      <c r="N51" s="8" t="s">
-        <v>239</v>
       </c>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
       <c r="R51" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
@@ -5305,37 +5308,37 @@
         <v>39</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F52" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="H52" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="I52" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
@@ -5373,37 +5376,37 @@
         <v>39</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F53" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>242</v>
-      </c>
       <c r="H53" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I53" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
@@ -5441,37 +5444,37 @@
         <v>39</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F54" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>242</v>
-      </c>
       <c r="H54" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I54" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
@@ -5509,37 +5512,37 @@
         <v>39</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E55" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="G55" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>247</v>
-      </c>
       <c r="H55" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I55" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="N55" s="8" t="s">
         <v>248</v>
-      </c>
-      <c r="N55" s="8" t="s">
-        <v>249</v>
       </c>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
@@ -5562,7 +5565,7 @@
         <v>48</v>
       </c>
       <c r="AK55" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL55" s="3"/>
     </row>
@@ -5577,42 +5580,42 @@
         <v>39</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E56" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="G56" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="H56" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>254</v>
-      </c>
       <c r="I56" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
@@ -5643,20 +5646,20 @@
         <v>39</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="H57" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I57" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
@@ -5667,7 +5670,7 @@
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - EDU.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - EDU.xlsx
@@ -5,28 +5,28 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuri\Downloads\CCRU new KPI\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086289BB-0BF3-4FB5-B32F-B1EEB7969B31}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FFD94BA-27E4-46D1-B79A-FEA8977C8D80}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="611" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="611" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Canteen" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Canteen!$A$1:$AL$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">Canteen!$A$1:$AL$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="0">Canteen!$A$1:$AL$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Canteen!$A$1:$AL$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">Canteen!$A$1:$AL$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="0">Canteen!$A$1:$AL$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="0">Canteen!$A$1:$AL$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="0">Canteen!$A$1:$AL$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Canteen!$A$1:$AN$57</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">Canteen!$A$1:$AN$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">Canteen!$A$1:$AN$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Canteen!$A$1:$AN$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">Canteen!$A$1:$AN$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="0">Canteen!$A$1:$AN$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="0">Canteen!$A$1:$AN$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="0">Canteen!$A$1:$AN$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="269">
   <si>
     <t>Sorting</t>
   </si>
@@ -869,12 +869,30 @@
   <si>
     <t>Menu Board, Cash Zone, SS_Cash Zone - Canteen, QSR, SS_Menu Board - Canteen, QSR</t>
   </si>
+  <si>
+    <t>Category KPI Type</t>
+  </si>
+  <si>
+    <t>Category KPI Value</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>ice tea</t>
+  </si>
+  <si>
+    <t>Juices</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -890,16 +908,29 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -922,11 +953,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -964,6 +1010,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1347,57 +1399,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK57"/>
+  <dimension ref="A1:AMM57"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="U1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+    <sheetView windowProtection="1" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomLeft" activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="6"/>
-    <col min="2" max="2" width="13.33203125" style="6"/>
-    <col min="3" max="3" width="15.5546875" style="6"/>
-    <col min="4" max="4" width="13.33203125" style="6"/>
-    <col min="5" max="5" width="16.33203125" style="6"/>
-    <col min="6" max="6" width="44.33203125" style="6"/>
-    <col min="7" max="7" width="90.109375" style="6"/>
-    <col min="8" max="8" width="48.88671875" style="6"/>
-    <col min="9" max="9" width="19.21875" style="6"/>
-    <col min="10" max="10" width="11.21875" style="6"/>
-    <col min="11" max="12" width="16.33203125" style="6"/>
-    <col min="13" max="13" width="33.5546875" style="6"/>
-    <col min="14" max="14" width="33.5546875" style="12"/>
-    <col min="15" max="15" width="22.5546875" style="6"/>
-    <col min="16" max="16" width="55.88671875" style="6"/>
-    <col min="17" max="17" width="21.33203125" style="6"/>
-    <col min="18" max="18" width="14" style="6"/>
-    <col min="19" max="19" width="9.109375" style="6"/>
-    <col min="20" max="20" width="16.33203125" style="6"/>
-    <col min="21" max="21" width="20.6640625" style="6"/>
-    <col min="22" max="22" width="25.77734375" style="6"/>
-    <col min="23" max="23" width="25.6640625" style="6"/>
-    <col min="24" max="24" width="26.5546875" style="6"/>
-    <col min="25" max="25" width="23.109375" style="6"/>
-    <col min="26" max="26" width="29.44140625" style="6"/>
-    <col min="27" max="27" width="29.77734375" style="6"/>
-    <col min="28" max="28" width="19.44140625" style="6"/>
-    <col min="29" max="29" width="18.88671875" style="6"/>
-    <col min="30" max="30" width="16.33203125" style="13"/>
-    <col min="31" max="31" width="15.88671875" style="6"/>
-    <col min="32" max="32" width="16.109375" style="6"/>
-    <col min="33" max="33" width="73.6640625" style="6"/>
-    <col min="34" max="34" width="25.6640625" style="6"/>
-    <col min="35" max="35" width="10.33203125" style="6"/>
-    <col min="36" max="36" width="10.77734375" style="6"/>
-    <col min="37" max="37" width="18.88671875" style="12"/>
-    <col min="38" max="38" width="11.44140625" style="6"/>
-    <col min="39" max="1025" width="9.109375" style="6"/>
-    <col min="1026" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="13.140625" style="6"/>
+    <col min="2" max="2" width="13.28515625" style="6"/>
+    <col min="3" max="3" width="15.5703125" style="6"/>
+    <col min="4" max="4" width="13.28515625" style="6"/>
+    <col min="5" max="5" width="16.28515625" style="6"/>
+    <col min="6" max="6" width="44.28515625" style="6"/>
+    <col min="7" max="7" width="90.140625" style="6"/>
+    <col min="8" max="8" width="48.85546875" style="6"/>
+    <col min="9" max="9" width="25" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" style="6"/>
+    <col min="12" max="12" width="11.28515625" style="6"/>
+    <col min="13" max="14" width="16.28515625" style="6"/>
+    <col min="15" max="15" width="33.5703125" style="6"/>
+    <col min="16" max="16" width="33.5703125" style="12"/>
+    <col min="17" max="17" width="22.5703125" style="6"/>
+    <col min="18" max="18" width="55.85546875" style="6"/>
+    <col min="19" max="19" width="21.28515625" style="6"/>
+    <col min="20" max="20" width="14" style="6"/>
+    <col min="21" max="21" width="9.140625" style="6"/>
+    <col min="22" max="22" width="16.28515625" style="6"/>
+    <col min="23" max="23" width="20.7109375" style="6"/>
+    <col min="24" max="25" width="25.7109375" style="6"/>
+    <col min="26" max="26" width="26.5703125" style="6"/>
+    <col min="27" max="27" width="23.140625" style="6"/>
+    <col min="28" max="28" width="29.42578125" style="6"/>
+    <col min="29" max="29" width="29.7109375" style="6"/>
+    <col min="30" max="30" width="19.42578125" style="6"/>
+    <col min="31" max="31" width="18.85546875" style="6"/>
+    <col min="32" max="32" width="16.28515625" style="13"/>
+    <col min="33" max="33" width="15.85546875" style="6"/>
+    <col min="34" max="34" width="16.140625" style="6"/>
+    <col min="35" max="35" width="73.7109375" style="6"/>
+    <col min="36" max="36" width="25.7109375" style="6"/>
+    <col min="37" max="37" width="10.28515625" style="6"/>
+    <col min="38" max="38" width="10.7109375" style="6"/>
+    <col min="39" max="39" width="18.85546875" style="12"/>
+    <col min="40" max="40" width="11.42578125" style="6"/>
+    <col min="41" max="1027" width="9.140625" style="6" customWidth="1"/>
+    <col min="1028" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1422,98 +1475,104 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1541,9 +1600,9 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="4"/>
+      <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="P2" s="4"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
@@ -1557,21 +1616,23 @@
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
-      <c r="AD2" s="5"/>
+      <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
+      <c r="AF2" s="5"/>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
-      <c r="AI2" s="3">
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3">
         <v>1</v>
       </c>
-      <c r="AJ2" s="3">
+      <c r="AL2" s="3">
         <v>300</v>
       </c>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="3"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="3"/>
     </row>
-    <row r="3" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>6</v>
       </c>
@@ -1596,14 +1657,18 @@
       <c r="H3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="I3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>265</v>
+      </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="4"/>
+      <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="P3" s="4"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
@@ -1616,28 +1681,30 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
-      <c r="AC3" s="3" t="s">
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
+      <c r="AF3" s="5"/>
       <c r="AG3" s="3"/>
       <c r="AH3" s="3"/>
-      <c r="AI3" s="3">
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3">
         <v>2</v>
       </c>
-      <c r="AJ3" s="3">
+      <c r="AL3" s="3">
         <v>1</v>
       </c>
-      <c r="AK3" s="8" t="s">
+      <c r="AM3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AL3" s="3">
+      <c r="AN3" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>7</v>
       </c>
@@ -1663,61 +1730,63 @@
         <v>50</v>
       </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="3">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
         <v>1</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="P4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="3" t="s">
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
-      <c r="AC4" s="3" t="s">
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD4" s="5">
+      <c r="AF4" s="5">
         <v>3.2480000000000002E-2</v>
       </c>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
       <c r="AH4" s="3"/>
-      <c r="AI4" s="3">
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3">
         <v>3</v>
       </c>
-      <c r="AJ4" s="3">
+      <c r="AL4" s="3">
         <v>201</v>
       </c>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="3">
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>7</v>
       </c>
@@ -1743,61 +1812,63 @@
         <v>50</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="3">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
         <v>1</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="3" t="s">
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3" t="s">
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
-      <c r="AC5" s="3" t="s">
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD5" s="5">
+      <c r="AF5" s="5">
         <v>3.2480000000000002E-2</v>
       </c>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
-      <c r="AI5" s="3">
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3">
         <v>3</v>
       </c>
-      <c r="AJ5" s="3">
+      <c r="AL5" s="3">
         <v>202</v>
       </c>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="3">
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>9</v>
       </c>
@@ -1823,61 +1894,63 @@
         <v>50</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="3">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3">
         <v>1</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="3" t="s">
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3" t="s">
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
-      <c r="AC6" s="3" t="s">
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD6" s="5">
+      <c r="AF6" s="5">
         <v>3.2480000000000002E-2</v>
       </c>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
-      <c r="AI6" s="3">
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3">
         <v>3</v>
       </c>
-      <c r="AJ6" s="3">
+      <c r="AL6" s="3">
         <v>4</v>
       </c>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="3">
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>9</v>
       </c>
@@ -1903,61 +1976,63 @@
         <v>50</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="3">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3">
         <v>1</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="P7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="3" t="s">
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3" t="s">
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
-      <c r="AC7" s="3" t="s">
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD7" s="5">
+      <c r="AF7" s="5">
         <v>2.0999E-2</v>
       </c>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
-      <c r="AI7" s="3">
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3">
         <v>3</v>
       </c>
-      <c r="AJ7" s="3">
+      <c r="AL7" s="3">
         <v>203</v>
       </c>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="3">
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>9</v>
       </c>
@@ -1983,61 +2058,63 @@
         <v>50</v>
       </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="3">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3">
         <v>1</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="P8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3" t="s">
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="3" t="s">
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3" t="s">
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
-      <c r="AC8" s="3" t="s">
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD8" s="5">
+      <c r="AF8" s="5">
         <v>2.0999E-2</v>
       </c>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
-      <c r="AI8" s="3">
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3">
         <v>3</v>
       </c>
-      <c r="AJ8" s="3">
+      <c r="AL8" s="3">
         <v>204</v>
       </c>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="3">
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>9</v>
       </c>
@@ -2063,61 +2140,63 @@
         <v>50</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="3">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3">
         <v>1</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="N9" s="4">
+      <c r="P9" s="4">
         <v>5449000131836</v>
       </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="3" t="s">
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3" t="s">
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
-      <c r="AC9" s="3" t="s">
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD9" s="5">
+      <c r="AF9" s="5">
         <v>2.0999E-2</v>
       </c>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
-      <c r="AI9" s="3">
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3">
         <v>3</v>
       </c>
-      <c r="AJ9" s="3">
+      <c r="AL9" s="3">
         <v>205</v>
       </c>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="3">
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2143,61 +2222,63 @@
         <v>50</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3">
         <v>1</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3" t="s">
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="3" t="s">
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3" t="s">
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
-      <c r="AC10" s="3" t="s">
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD10" s="5">
+      <c r="AF10" s="5">
         <v>2.0999E-2</v>
       </c>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
-      <c r="AI10" s="3">
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3">
         <v>3</v>
       </c>
-      <c r="AJ10" s="3">
+      <c r="AL10" s="3">
         <v>206</v>
       </c>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="3">
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -2223,61 +2304,63 @@
         <v>50</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3">
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3">
         <v>1</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="P11" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3" t="s">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="T11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="3" t="s">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3" t="s">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-      <c r="AC11" s="3" t="s">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD11" s="5">
+      <c r="AF11" s="5">
         <v>2.0999E-2</v>
       </c>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
-      <c r="AI11" s="3">
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3">
         <v>3</v>
       </c>
-      <c r="AJ11" s="3">
+      <c r="AL11" s="3">
         <v>207</v>
       </c>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="3">
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>15</v>
       </c>
@@ -2303,59 +2386,61 @@
         <v>50</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3">
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3">
         <v>1</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="P12" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3" t="s">
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="3" t="s">
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3" t="s">
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
-      <c r="AD12" s="5">
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="5">
         <v>2.0999E-2</v>
       </c>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
-      <c r="AI12" s="3">
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3">
         <v>3</v>
       </c>
-      <c r="AJ12" s="3">
+      <c r="AL12" s="3">
         <v>10</v>
       </c>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="3">
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -2381,61 +2466,63 @@
         <v>50</v>
       </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="3">
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3">
         <v>1</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="P13" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3" t="s">
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="T13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
       <c r="U13" s="3"/>
-      <c r="V13" s="3" t="s">
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3" t="s">
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
-      <c r="AC13" s="3" t="s">
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD13" s="5">
+      <c r="AF13" s="5">
         <v>2.0999E-2</v>
       </c>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
-      <c r="AI13" s="3">
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3">
         <v>3</v>
       </c>
-      <c r="AJ13" s="3">
+      <c r="AL13" s="3">
         <v>208</v>
       </c>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="3">
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>9</v>
       </c>
@@ -2461,61 +2548,63 @@
         <v>50</v>
       </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="3">
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3">
         <v>1</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="P14" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="3" t="s">
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3" t="s">
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
-      <c r="AC14" s="3" t="s">
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD14" s="5">
+      <c r="AF14" s="5">
         <v>1.2272999999999999E-2</v>
       </c>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
-      <c r="AI14" s="3">
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3">
         <v>3</v>
       </c>
-      <c r="AJ14" s="3">
+      <c r="AL14" s="3">
         <v>209</v>
       </c>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="3">
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>17</v>
       </c>
@@ -2540,14 +2629,18 @@
       <c r="H15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="I15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>266</v>
+      </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="4"/>
+      <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
+      <c r="P15" s="4"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -2560,28 +2653,30 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
-      <c r="AC15" s="3" t="s">
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
+      <c r="AF15" s="5"/>
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
-      <c r="AI15" s="3">
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3">
         <v>2</v>
       </c>
-      <c r="AJ15" s="3">
+      <c r="AL15" s="3">
         <v>12</v>
       </c>
-      <c r="AK15" s="8" t="s">
+      <c r="AM15" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AL15" s="3">
+      <c r="AN15" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>18</v>
       </c>
@@ -2607,61 +2702,63 @@
         <v>50</v>
       </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="3">
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3">
         <v>1</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="P16" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3" t="s">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="T16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="3" t="s">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3" t="s">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-      <c r="AC16" s="3" t="s">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD16" s="5">
+      <c r="AF16" s="5">
         <v>3.2488000000000003E-2</v>
       </c>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
-      <c r="AI16" s="3">
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3">
         <v>3</v>
       </c>
-      <c r="AJ16" s="3">
+      <c r="AL16" s="3">
         <v>213</v>
       </c>
-      <c r="AK16" s="4"/>
-      <c r="AL16" s="3">
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>19</v>
       </c>
@@ -2687,61 +2784,63 @@
         <v>50</v>
       </c>
       <c r="I17" s="3"/>
-      <c r="J17" s="3">
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3">
         <v>1</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="P17" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3" t="s">
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="T17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="3" t="s">
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3" t="s">
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
-      <c r="AC17" s="3" t="s">
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD17" s="5">
+      <c r="AF17" s="5">
         <v>9.6419999999999995E-3</v>
       </c>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
-      <c r="AI17" s="3">
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3">
         <v>3</v>
       </c>
-      <c r="AJ17" s="3">
+      <c r="AL17" s="3">
         <v>214</v>
       </c>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="3">
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>20</v>
       </c>
@@ -2767,61 +2866,63 @@
         <v>50</v>
       </c>
       <c r="I18" s="3"/>
-      <c r="J18" s="3">
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3">
         <v>1</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="P18" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3" t="s">
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="T18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
       <c r="U18" s="3"/>
-      <c r="V18" s="3" t="s">
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3" t="s">
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
-      <c r="AC18" s="3" t="s">
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD18" s="5">
+      <c r="AF18" s="5">
         <v>9.6419999999999995E-3</v>
       </c>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
-      <c r="AI18" s="3">
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3">
         <v>3</v>
       </c>
-      <c r="AJ18" s="3">
+      <c r="AL18" s="3">
         <v>215</v>
       </c>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="3">
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>21</v>
       </c>
@@ -2846,14 +2947,18 @@
       <c r="H19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="I19" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>267</v>
+      </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="4"/>
+      <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+      <c r="P19" s="4"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
@@ -2866,28 +2971,30 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-      <c r="AC19" s="3" t="s">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
+      <c r="AF19" s="5"/>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
-      <c r="AI19" s="3">
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3">
         <v>2</v>
       </c>
-      <c r="AJ19" s="3">
+      <c r="AL19" s="3">
         <v>16</v>
       </c>
-      <c r="AK19" s="8" t="s">
+      <c r="AM19" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="AL19" s="3">
+      <c r="AN19" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>23</v>
       </c>
@@ -2913,61 +3020,63 @@
         <v>50</v>
       </c>
       <c r="I20" s="3"/>
-      <c r="J20" s="3">
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3">
         <v>1</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="9" t="s">
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="N20" s="10" t="s">
+      <c r="P20" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3" t="s">
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="T20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="3" t="s">
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3" t="s">
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
-      <c r="AC20" s="3" t="s">
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD20" s="5">
+      <c r="AF20" s="5">
         <v>3.2488000000000003E-2</v>
       </c>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
-      <c r="AI20" s="3">
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3">
         <v>3</v>
       </c>
-      <c r="AJ20" s="3">
+      <c r="AL20" s="3">
         <v>218</v>
       </c>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="3">
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>23</v>
       </c>
@@ -2993,61 +3102,63 @@
         <v>50</v>
       </c>
       <c r="I21" s="3"/>
-      <c r="J21" s="3">
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3">
         <v>1</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="P21" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3" t="s">
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="T21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
       <c r="U21" s="3"/>
-      <c r="V21" s="3" t="s">
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3" t="s">
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
-      <c r="AC21" s="3" t="s">
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD21" s="5">
+      <c r="AF21" s="5">
         <v>3.2488000000000003E-2</v>
       </c>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
-      <c r="AI21" s="3">
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3">
         <v>3</v>
       </c>
-      <c r="AJ21" s="3">
+      <c r="AL21" s="3">
         <v>18</v>
       </c>
-      <c r="AK21" s="4"/>
-      <c r="AL21" s="3">
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>25</v>
       </c>
@@ -3073,61 +3184,63 @@
         <v>50</v>
       </c>
       <c r="I22" s="3"/>
-      <c r="J22" s="3">
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3">
         <v>1</v>
       </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="P22" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3" t="s">
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
       <c r="U22" s="3"/>
-      <c r="V22" s="3" t="s">
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3" t="s">
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
-      <c r="AC22" s="3" t="s">
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD22" s="5">
+      <c r="AF22" s="5">
         <v>9.6430000000000005E-3</v>
       </c>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
-      <c r="AI22" s="3">
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3">
         <v>3</v>
       </c>
-      <c r="AJ22" s="3">
+      <c r="AL22" s="3">
         <v>20</v>
       </c>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="3">
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>23</v>
       </c>
@@ -3153,61 +3266,63 @@
         <v>50</v>
       </c>
       <c r="I23" s="3"/>
-      <c r="J23" s="3">
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3">
         <v>1</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3" t="s">
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="P23" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3" t="s">
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="T23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
       <c r="U23" s="3"/>
-      <c r="V23" s="3" t="s">
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3" t="s">
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
-      <c r="AC23" s="3" t="s">
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD23" s="5">
+      <c r="AF23" s="5">
         <v>9.6430000000000005E-3</v>
       </c>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
-      <c r="AI23" s="3">
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3">
         <v>3</v>
       </c>
-      <c r="AJ23" s="3">
+      <c r="AL23" s="3">
         <v>220</v>
       </c>
-      <c r="AK23" s="4"/>
-      <c r="AL23" s="3">
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>26</v>
       </c>
@@ -3232,14 +3347,18 @@
       <c r="H24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="I24" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>268</v>
+      </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="4"/>
+      <c r="N24" s="3"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
+      <c r="P24" s="4"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
@@ -3252,28 +3371,30 @@
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
-      <c r="AC24" s="3" t="s">
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
+      <c r="AF24" s="5"/>
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
-      <c r="AI24" s="3">
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3">
         <v>2</v>
       </c>
-      <c r="AJ24" s="3">
+      <c r="AL24" s="3">
         <v>21</v>
       </c>
-      <c r="AK24" s="8" t="s">
+      <c r="AM24" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AL24" s="3">
+      <c r="AN24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>27</v>
       </c>
@@ -3299,61 +3420,63 @@
         <v>50</v>
       </c>
       <c r="I25" s="3"/>
-      <c r="J25" s="3">
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3">
         <v>1</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3" t="s">
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="P25" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3" t="s">
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="T25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
       <c r="U25" s="3"/>
-      <c r="V25" s="3" t="s">
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3" t="s">
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
-      <c r="AC25" s="3" t="s">
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD25" s="5">
+      <c r="AF25" s="5">
         <v>3.2488000000000003E-2</v>
       </c>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
-      <c r="AI25" s="3">
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3">
         <v>3</v>
       </c>
-      <c r="AJ25" s="3">
+      <c r="AL25" s="3">
         <v>22</v>
       </c>
-      <c r="AK25" s="4"/>
-      <c r="AL25" s="3">
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>28</v>
       </c>
@@ -3379,61 +3502,63 @@
         <v>50</v>
       </c>
       <c r="I26" s="3"/>
-      <c r="J26" s="3">
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3">
         <v>1</v>
       </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3" t="s">
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="P26" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3" t="s">
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="T26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
       <c r="U26" s="3"/>
-      <c r="V26" s="3" t="s">
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3" t="s">
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
-      <c r="AC26" s="3" t="s">
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD26" s="5">
+      <c r="AF26" s="5">
         <v>3.2488000000000003E-2</v>
       </c>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
-      <c r="AI26" s="3">
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3">
         <v>3</v>
       </c>
-      <c r="AJ26" s="3">
+      <c r="AL26" s="3">
         <v>23</v>
       </c>
-      <c r="AK26" s="4"/>
-      <c r="AL26" s="3">
+      <c r="AM26" s="4"/>
+      <c r="AN26" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>28</v>
       </c>
@@ -3459,61 +3584,63 @@
         <v>50</v>
       </c>
       <c r="I27" s="3"/>
-      <c r="J27" s="3">
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3">
         <v>1</v>
       </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3" t="s">
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="N27" s="4">
+      <c r="P27" s="4">
         <v>4607174577787</v>
       </c>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3" t="s">
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="T27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
       <c r="U27" s="3"/>
-      <c r="V27" s="3" t="s">
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3" t="s">
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
-      <c r="AC27" s="3" t="s">
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD27" s="5">
+      <c r="AF27" s="5">
         <v>2.0999E-2</v>
       </c>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
-      <c r="AI27" s="3">
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3">
         <v>3</v>
       </c>
-      <c r="AJ27" s="3">
+      <c r="AL27" s="3">
         <v>23</v>
       </c>
-      <c r="AK27" s="4"/>
-      <c r="AL27" s="3">
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>29</v>
       </c>
@@ -3539,61 +3666,63 @@
         <v>50</v>
       </c>
       <c r="I28" s="3"/>
-      <c r="J28" s="3">
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3">
         <v>1</v>
       </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3" t="s">
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="N28" s="4">
+      <c r="P28" s="4">
         <v>4650075420980</v>
       </c>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3" t="s">
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="T28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
       <c r="U28" s="3"/>
-      <c r="V28" s="3" t="s">
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3" t="s">
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
-      <c r="AC28" s="3" t="s">
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD28" s="5">
+      <c r="AF28" s="5">
         <v>2.0999E-2</v>
       </c>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
-      <c r="AI28" s="3">
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3">
         <v>3</v>
       </c>
-      <c r="AJ28" s="3">
+      <c r="AL28" s="3">
         <v>24</v>
       </c>
-      <c r="AK28" s="4"/>
-      <c r="AL28" s="3">
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>30</v>
       </c>
@@ -3619,61 +3748,63 @@
         <v>50</v>
       </c>
       <c r="I29" s="3"/>
-      <c r="J29" s="3">
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3">
         <v>1</v>
       </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N29" s="4" t="s">
+      <c r="P29" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3" t="s">
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
       <c r="U29" s="3"/>
-      <c r="V29" s="3" t="s">
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3" t="s">
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
-      <c r="AC29" s="3" t="s">
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD29" s="5">
+      <c r="AF29" s="5">
         <v>2.0999E-2</v>
       </c>
-      <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
-      <c r="AI29" s="3">
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3">
         <v>3</v>
       </c>
-      <c r="AJ29" s="3">
+      <c r="AL29" s="3">
         <v>25</v>
       </c>
-      <c r="AK29" s="4"/>
-      <c r="AL29" s="3">
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>31</v>
       </c>
@@ -3699,61 +3830,63 @@
         <v>50</v>
       </c>
       <c r="I30" s="3"/>
-      <c r="J30" s="3">
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3">
         <v>1</v>
       </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3" t="s">
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="N30" s="4" t="s">
+      <c r="P30" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3" t="s">
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R30" s="3" t="s">
+      <c r="T30" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
       <c r="U30" s="3"/>
-      <c r="V30" s="3" t="s">
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3" t="s">
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
-      <c r="AC30" s="3" t="s">
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD30" s="5">
+      <c r="AF30" s="5">
         <v>9.6430000000000005E-3</v>
       </c>
-      <c r="AE30" s="3"/>
-      <c r="AF30" s="3"/>
       <c r="AG30" s="3"/>
       <c r="AH30" s="3"/>
-      <c r="AI30" s="3">
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3">
         <v>3</v>
       </c>
-      <c r="AJ30" s="3">
+      <c r="AL30" s="3">
         <v>26</v>
       </c>
-      <c r="AK30" s="4"/>
-      <c r="AL30" s="3">
+      <c r="AM30" s="4"/>
+      <c r="AN30" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>32</v>
       </c>
@@ -3779,61 +3912,63 @@
         <v>50</v>
       </c>
       <c r="I31" s="3"/>
-      <c r="J31" s="3">
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3">
         <v>1</v>
       </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3" t="s">
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="P31" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3" t="s">
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R31" s="3" t="s">
+      <c r="T31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
       <c r="U31" s="3"/>
-      <c r="V31" s="3" t="s">
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3" t="s">
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
-      <c r="AC31" s="3" t="s">
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD31" s="5">
+      <c r="AF31" s="5">
         <v>9.6439999999999998E-3</v>
       </c>
-      <c r="AE31" s="3"/>
-      <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
-      <c r="AI31" s="3">
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3">
         <v>3</v>
       </c>
-      <c r="AJ31" s="3">
+      <c r="AL31" s="3">
         <v>27</v>
       </c>
-      <c r="AK31" s="4"/>
-      <c r="AL31" s="3">
+      <c r="AM31" s="4"/>
+      <c r="AN31" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2</v>
       </c>
@@ -3861,9 +3996,9 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="4"/>
+      <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
+      <c r="P32" s="4"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
@@ -3877,21 +4012,23 @@
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
-      <c r="AD32" s="5"/>
+      <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
-      <c r="AF32" s="3"/>
+      <c r="AF32" s="5"/>
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
-      <c r="AI32" s="3">
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3">
         <v>1</v>
       </c>
-      <c r="AJ32" s="3">
+      <c r="AL32" s="3">
         <v>310</v>
       </c>
-      <c r="AK32" s="4"/>
-      <c r="AL32" s="3"/>
+      <c r="AM32" s="4"/>
+      <c r="AN32" s="3"/>
     </row>
-    <row r="33" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>3</v>
       </c>
@@ -3919,9 +4056,9 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="4"/>
+      <c r="N33" s="3"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
+      <c r="P33" s="4"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
@@ -3935,23 +4072,25 @@
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
-      <c r="AD33" s="5"/>
+      <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
-      <c r="AF33" s="3"/>
+      <c r="AF33" s="5"/>
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
-      <c r="AI33" s="3">
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3">
         <v>1</v>
       </c>
-      <c r="AJ33" s="3">
+      <c r="AL33" s="3">
         <v>311</v>
       </c>
-      <c r="AK33" s="4"/>
-      <c r="AL33" s="3">
+      <c r="AM33" s="4"/>
+      <c r="AN33" s="3">
         <v>310</v>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>36</v>
       </c>
@@ -3981,14 +4120,14 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="4"/>
+      <c r="N34" s="3"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3" t="s">
+      <c r="P34" s="4"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
@@ -3998,32 +4137,34 @@
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
-      <c r="AC34" s="3" t="s">
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="AD34" s="5">
+      <c r="AF34" s="5">
         <v>0.13500000000000001</v>
       </c>
-      <c r="AE34" s="3"/>
-      <c r="AF34" s="3"/>
-      <c r="AG34" s="3" t="s">
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="AH34" s="3"/>
-      <c r="AI34" s="3">
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3">
         <v>2</v>
       </c>
-      <c r="AJ34" s="3">
+      <c r="AL34" s="3">
         <v>31</v>
       </c>
-      <c r="AK34" s="8" t="s">
+      <c r="AM34" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AL34" s="3">
+      <c r="AN34" s="3">
         <v>311</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>37</v>
       </c>
@@ -4049,53 +4190,55 @@
         <v>162</v>
       </c>
       <c r="I35" s="3"/>
-      <c r="J35" s="3">
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3">
         <v>0.5</v>
       </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3" t="s">
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="N35" s="4"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
+      <c r="P35" s="4"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
-      <c r="W35" s="3" t="s">
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
-      <c r="AC35" s="3" t="s">
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD35" s="5"/>
-      <c r="AE35" s="3"/>
-      <c r="AF35" s="3"/>
-      <c r="AG35" s="3" t="s">
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="AH35" s="3"/>
-      <c r="AI35" s="3">
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="3">
         <v>3</v>
       </c>
-      <c r="AJ35" s="3">
+      <c r="AL35" s="3">
         <v>32</v>
       </c>
-      <c r="AK35" s="4"/>
-      <c r="AL35" s="3">
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>38</v>
       </c>
@@ -4121,55 +4264,57 @@
         <v>168</v>
       </c>
       <c r="I36" s="3"/>
-      <c r="J36" s="3">
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3">
         <v>0.01</v>
       </c>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3" t="s">
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="N36" s="4" t="s">
+      <c r="P36" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
-      <c r="R36" s="3" t="s">
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
-      <c r="W36" s="3" t="s">
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
-      <c r="AC36" s="3" t="s">
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD36" s="5"/>
-      <c r="AE36" s="3"/>
-      <c r="AF36" s="3"/>
+      <c r="AF36" s="5"/>
       <c r="AG36" s="3"/>
       <c r="AH36" s="3"/>
-      <c r="AI36" s="3">
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3"/>
+      <c r="AK36" s="3">
         <v>3</v>
       </c>
-      <c r="AJ36" s="3">
+      <c r="AL36" s="3">
         <v>33</v>
       </c>
-      <c r="AK36" s="4"/>
-      <c r="AL36" s="3">
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>4</v>
       </c>
@@ -4197,9 +4342,9 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
-      <c r="N37" s="4"/>
+      <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
+      <c r="P37" s="4"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
@@ -4213,25 +4358,27 @@
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
-      <c r="AD37" s="5"/>
+      <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
-      <c r="AF37" s="3"/>
+      <c r="AF37" s="5"/>
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
-      <c r="AI37" s="3">
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="3">
         <v>1</v>
       </c>
-      <c r="AJ37" s="3">
+      <c r="AL37" s="3">
         <v>312</v>
       </c>
-      <c r="AK37" s="8" t="s">
+      <c r="AM37" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="AL37" s="3">
+      <c r="AN37" s="3">
         <v>310</v>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>39</v>
       </c>
@@ -4257,61 +4404,63 @@
         <v>178</v>
       </c>
       <c r="I38" s="3"/>
-      <c r="J38" s="3">
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3">
         <v>1</v>
       </c>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
       <c r="M38" s="3"/>
-      <c r="N38" s="4" t="s">
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
-      <c r="R38" s="3" t="s">
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
-      <c r="W38" s="3" t="s">
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="X38" s="3" t="s">
+      <c r="Z38" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
-      <c r="AC38" s="3" t="s">
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD38" s="5">
+      <c r="AF38" s="5">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="AE38" s="3"/>
-      <c r="AF38" s="3"/>
-      <c r="AG38" s="3" t="s">
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="AH38" s="3" t="s">
+      <c r="AJ38" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AI38" s="3">
+      <c r="AK38" s="3">
         <v>2</v>
       </c>
-      <c r="AJ38" s="3">
+      <c r="AL38" s="3">
         <v>34</v>
       </c>
-      <c r="AK38" s="4"/>
-      <c r="AL38" s="3">
+      <c r="AM38" s="4"/>
+      <c r="AN38" s="3">
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>40</v>
       </c>
@@ -4337,61 +4486,63 @@
         <v>184</v>
       </c>
       <c r="I39" s="3"/>
-      <c r="J39" s="3">
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3">
         <v>1</v>
       </c>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3" t="s">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="N39" s="4" t="s">
+      <c r="P39" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-      <c r="R39" s="3" t="s">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-      <c r="W39" s="3" t="s">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-      <c r="AC39" s="3" t="s">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="AD39" s="5">
+      <c r="AF39" s="5">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="AE39" s="3"/>
-      <c r="AF39" s="3"/>
-      <c r="AG39" s="3" t="s">
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="AH39" s="3" t="s">
+      <c r="AJ39" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AI39" s="3">
+      <c r="AK39" s="3">
         <v>2</v>
       </c>
-      <c r="AJ39" s="3">
+      <c r="AL39" s="3">
         <v>35</v>
       </c>
-      <c r="AK39" s="4"/>
-      <c r="AL39" s="3">
+      <c r="AM39" s="4"/>
+      <c r="AN39" s="3">
         <v>312</v>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>41</v>
       </c>
@@ -4418,62 +4569,64 @@
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
-      <c r="K40" s="3">
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3">
         <v>1</v>
       </c>
-      <c r="L40" s="3">
+      <c r="N40" s="3">
         <v>15</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="O40" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="N40" s="4" t="s">
+      <c r="P40" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-      <c r="R40" s="3" t="s">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-      <c r="W40" s="3" t="s">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-      <c r="AC40" s="3" t="s">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="AD40" s="5">
+      <c r="AF40" s="5">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="AE40" s="3"/>
-      <c r="AF40" s="3"/>
-      <c r="AG40" s="3" t="s">
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3"/>
+      <c r="AI40" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="AH40" s="3" t="s">
+      <c r="AJ40" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AI40" s="3">
+      <c r="AK40" s="3">
         <v>2</v>
       </c>
-      <c r="AJ40" s="3">
+      <c r="AL40" s="3">
         <v>36</v>
       </c>
-      <c r="AK40" s="4"/>
-      <c r="AL40" s="3">
+      <c r="AM40" s="4"/>
+      <c r="AN40" s="3">
         <v>312</v>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>5</v>
       </c>
@@ -4501,9 +4654,9 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
-      <c r="N41" s="4"/>
+      <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
+      <c r="P41" s="4"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
@@ -4517,23 +4670,25 @@
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
-      <c r="AD41" s="5"/>
+      <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
-      <c r="AF41" s="3"/>
+      <c r="AF41" s="5"/>
       <c r="AG41" s="3"/>
       <c r="AH41" s="3"/>
-      <c r="AI41" s="3">
+      <c r="AI41" s="3"/>
+      <c r="AJ41" s="3"/>
+      <c r="AK41" s="3">
         <v>1</v>
       </c>
-      <c r="AJ41" s="3">
+      <c r="AL41" s="3">
         <v>400</v>
       </c>
-      <c r="AK41" s="8" t="s">
+      <c r="AM41" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="AL41" s="3"/>
+      <c r="AN41" s="3"/>
     </row>
-    <row r="42" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>34</v>
       </c>
@@ -4559,63 +4714,65 @@
         <v>50</v>
       </c>
       <c r="I42" s="3"/>
-      <c r="J42" s="3">
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3">
         <v>4</v>
       </c>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3" t="s">
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="N42" s="4" t="s">
+      <c r="P42" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3" t="s">
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="Q42" s="3" t="s">
+      <c r="S42" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R42" s="3" t="s">
+      <c r="T42" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
-      <c r="W42" s="3" t="s">
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="X42" s="3" t="s">
+      <c r="Z42" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
-      <c r="AC42" s="3" t="s">
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD42" s="5">
+      <c r="AF42" s="5">
         <v>0.09</v>
       </c>
-      <c r="AE42" s="3"/>
-      <c r="AF42" s="3"/>
       <c r="AG42" s="3"/>
       <c r="AH42" s="3"/>
-      <c r="AI42" s="3">
+      <c r="AI42" s="3"/>
+      <c r="AJ42" s="3"/>
+      <c r="AK42" s="3">
         <v>2</v>
       </c>
-      <c r="AJ42" s="3">
+      <c r="AL42" s="3">
         <v>29</v>
       </c>
-      <c r="AK42" s="4"/>
-      <c r="AL42" s="3">
+      <c r="AM42" s="4"/>
+      <c r="AN42" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>36</v>
       </c>
@@ -4640,58 +4797,60 @@
       <c r="H43" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3">
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3">
         <v>1</v>
       </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
       <c r="M43" s="3"/>
-      <c r="N43" s="4"/>
+      <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3" t="s">
+      <c r="P43" s="4"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
-      <c r="W43" s="3" t="s">
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="X43" s="3" t="s">
+      <c r="Z43" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
-      <c r="AC43" s="3" t="s">
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD43" s="5">
+      <c r="AF43" s="5">
         <v>0.1</v>
       </c>
-      <c r="AE43" s="3"/>
-      <c r="AF43" s="3"/>
       <c r="AG43" s="3"/>
       <c r="AH43" s="3"/>
-      <c r="AI43" s="3">
+      <c r="AI43" s="3"/>
+      <c r="AJ43" s="3"/>
+      <c r="AK43" s="3">
         <v>2</v>
       </c>
-      <c r="AJ43" s="3">
+      <c r="AL43" s="3">
         <v>678</v>
       </c>
-      <c r="AK43" s="8" t="s">
+      <c r="AM43" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="AL43" s="3">
+      <c r="AN43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -4716,56 +4875,58 @@
       <c r="H44" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3">
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3">
         <v>2</v>
       </c>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
       <c r="M44" s="3"/>
-      <c r="N44" s="4"/>
+      <c r="N44" s="3"/>
       <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3" t="s">
+      <c r="P44" s="4"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
-      <c r="W44" s="3" t="s">
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="X44" s="3" t="s">
+      <c r="Z44" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
-      <c r="AC44" s="3" t="s">
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD44" s="5"/>
-      <c r="AE44" s="3"/>
-      <c r="AF44" s="3"/>
+      <c r="AF44" s="5"/>
       <c r="AG44" s="3"/>
       <c r="AH44" s="3"/>
-      <c r="AI44" s="3">
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="3"/>
+      <c r="AK44" s="3">
         <v>3</v>
       </c>
-      <c r="AJ44" s="3">
+      <c r="AL44" s="3">
         <v>37</v>
       </c>
-      <c r="AK44" s="8" t="s">
+      <c r="AM44" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="AL44" s="3">
+      <c r="AN44" s="3">
         <v>678</v>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -4791,63 +4952,65 @@
         <v>50</v>
       </c>
       <c r="I45" s="3"/>
-      <c r="J45" s="3">
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3">
         <v>1</v>
       </c>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3" t="s">
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>213</v>
       </c>
       <c r="Q45" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="S45" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R45" s="3" t="s">
+      <c r="T45" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="S45" s="3"/>
-      <c r="T45" s="9"/>
       <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3" t="s">
+      <c r="V45" s="9"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="X45" s="3" t="s">
+      <c r="Z45" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
-      <c r="AC45" s="3" t="s">
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD45" s="5"/>
-      <c r="AE45" s="3"/>
-      <c r="AF45" s="3"/>
+      <c r="AF45" s="5"/>
       <c r="AG45" s="3"/>
       <c r="AH45" s="3"/>
-      <c r="AI45" s="3">
+      <c r="AI45" s="3"/>
+      <c r="AJ45" s="3"/>
+      <c r="AK45" s="3">
         <v>4</v>
       </c>
-      <c r="AJ45" s="3">
+      <c r="AL45" s="3">
         <v>38</v>
       </c>
-      <c r="AK45" s="4"/>
-      <c r="AL45" s="3">
+      <c r="AM45" s="4"/>
+      <c r="AN45" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -4873,63 +5036,65 @@
         <v>50</v>
       </c>
       <c r="I46" s="3"/>
-      <c r="J46" s="3">
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3">
         <v>1</v>
       </c>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3" t="s">
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="N46" s="4">
+      <c r="P46" s="4">
         <v>5000034</v>
       </c>
-      <c r="O46" s="3" t="s">
+      <c r="Q46" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3" t="s">
+      <c r="R46" s="3"/>
+      <c r="S46" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R46" s="3" t="s">
+      <c r="T46" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
-      <c r="W46" s="3" t="s">
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="X46" s="3" t="s">
+      <c r="Z46" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
-      <c r="AC46" s="3" t="s">
+      <c r="AC46" s="3"/>
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD46" s="5"/>
-      <c r="AE46" s="3"/>
-      <c r="AF46" s="3"/>
-      <c r="AG46" s="3" t="s">
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="3"/>
+      <c r="AH46" s="3"/>
+      <c r="AI46" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="AH46" s="3"/>
-      <c r="AI46" s="3">
+      <c r="AJ46" s="3"/>
+      <c r="AK46" s="3">
         <v>4</v>
       </c>
-      <c r="AJ46" s="3">
+      <c r="AL46" s="3">
         <v>39</v>
       </c>
-      <c r="AK46" s="4"/>
-      <c r="AL46" s="3">
+      <c r="AM46" s="4"/>
+      <c r="AN46" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -4954,56 +5119,58 @@
       <c r="H47" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3">
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3">
         <v>2</v>
       </c>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
       <c r="M47" s="3"/>
-      <c r="N47" s="4"/>
+      <c r="N47" s="3"/>
       <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3" t="s">
+      <c r="P47" s="4"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
-      <c r="W47" s="3" t="s">
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="X47" s="3" t="s">
+      <c r="Z47" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
-      <c r="AC47" s="3" t="s">
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD47" s="5"/>
-      <c r="AE47" s="3"/>
-      <c r="AF47" s="3"/>
+      <c r="AF47" s="5"/>
       <c r="AG47" s="3"/>
       <c r="AH47" s="3"/>
-      <c r="AI47" s="3">
+      <c r="AI47" s="3"/>
+      <c r="AJ47" s="3"/>
+      <c r="AK47" s="3">
         <v>3</v>
       </c>
-      <c r="AJ47" s="3">
+      <c r="AL47" s="3">
         <v>40</v>
       </c>
-      <c r="AK47" s="8" t="s">
+      <c r="AM47" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="AL47" s="3">
+      <c r="AN47" s="3">
         <v>678</v>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -5029,61 +5196,63 @@
         <v>50</v>
       </c>
       <c r="I48" s="3"/>
-      <c r="J48" s="3">
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3">
         <v>1</v>
       </c>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
       <c r="M48" s="3"/>
-      <c r="N48" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>214</v>
-      </c>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
       <c r="P48" s="3" t="s">
         <v>224</v>
       </c>
       <c r="Q48" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="S48" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R48" s="3" t="s">
+      <c r="T48" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
-      <c r="W48" s="3" t="s">
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="X48" s="3" t="s">
+      <c r="Z48" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
-      <c r="AC48" s="3" t="s">
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD48" s="5"/>
-      <c r="AE48" s="3"/>
-      <c r="AF48" s="3"/>
+      <c r="AF48" s="5"/>
       <c r="AG48" s="3"/>
       <c r="AH48" s="3"/>
-      <c r="AI48" s="3">
+      <c r="AI48" s="3"/>
+      <c r="AJ48" s="3"/>
+      <c r="AK48" s="3">
         <v>4</v>
       </c>
-      <c r="AJ48" s="3">
+      <c r="AL48" s="3">
         <v>41</v>
       </c>
-      <c r="AK48" s="4"/>
-      <c r="AL48" s="3">
+      <c r="AM48" s="4"/>
+      <c r="AN48" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>47</v>
       </c>
@@ -5108,64 +5277,66 @@
       <c r="H49" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3">
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3">
         <v>1</v>
       </c>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3" t="s">
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="N49" s="4">
+      <c r="P49" s="4">
         <v>5000034</v>
       </c>
-      <c r="O49" s="3" t="s">
+      <c r="Q49" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3" t="s">
+      <c r="R49" s="3"/>
+      <c r="S49" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R49" s="3" t="s">
+      <c r="T49" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
-      <c r="W49" s="3" t="s">
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="X49" s="3" t="s">
+      <c r="Z49" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
-      <c r="AC49" s="3" t="s">
+      <c r="AC49" s="3"/>
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD49" s="5"/>
-      <c r="AE49" s="3"/>
-      <c r="AF49" s="3"/>
-      <c r="AG49" s="3" t="s">
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="3"/>
+      <c r="AH49" s="3"/>
+      <c r="AI49" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="AH49" s="3"/>
-      <c r="AI49" s="3">
+      <c r="AJ49" s="3"/>
+      <c r="AK49" s="3">
         <v>4</v>
       </c>
-      <c r="AJ49" s="3">
+      <c r="AL49" s="3">
         <v>42</v>
       </c>
-      <c r="AK49" s="4"/>
-      <c r="AL49" s="3">
+      <c r="AM49" s="4"/>
+      <c r="AN49" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -5190,22 +5361,22 @@
       <c r="H50" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
-      <c r="N50" s="4"/>
+      <c r="N50" s="3"/>
       <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
+      <c r="P50" s="4"/>
       <c r="Q50" s="3"/>
-      <c r="R50" s="3" t="s">
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
@@ -5215,21 +5386,23 @@
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
       <c r="AC50" s="3"/>
-      <c r="AD50" s="5"/>
+      <c r="AD50" s="3"/>
       <c r="AE50" s="3"/>
-      <c r="AF50" s="3"/>
+      <c r="AF50" s="5"/>
       <c r="AG50" s="3"/>
       <c r="AH50" s="3"/>
       <c r="AI50" s="3"/>
-      <c r="AJ50" s="3">
+      <c r="AJ50" s="3"/>
+      <c r="AK50" s="3"/>
+      <c r="AL50" s="3">
         <v>43</v>
       </c>
-      <c r="AK50" s="8" t="s">
+      <c r="AM50" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="AL50" s="3"/>
+      <c r="AN50" s="3"/>
     </row>
-    <row r="51" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -5254,26 +5427,26 @@
       <c r="H51" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
       <c r="L51" s="3"/>
-      <c r="M51" s="3" t="s">
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="N51" s="8" t="s">
+      <c r="P51" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
-      <c r="R51" s="3" t="s">
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
@@ -5283,21 +5456,23 @@
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
       <c r="AC51" s="3"/>
-      <c r="AD51" s="5"/>
+      <c r="AD51" s="3"/>
       <c r="AE51" s="3"/>
-      <c r="AF51" s="3"/>
+      <c r="AF51" s="5"/>
       <c r="AG51" s="3"/>
       <c r="AH51" s="3"/>
       <c r="AI51" s="3"/>
-      <c r="AJ51" s="3">
+      <c r="AJ51" s="3"/>
+      <c r="AK51" s="3"/>
+      <c r="AL51" s="3">
         <v>44</v>
       </c>
-      <c r="AK51" s="4">
+      <c r="AM51" s="4">
         <v>40</v>
       </c>
-      <c r="AL51" s="3"/>
+      <c r="AN51" s="3"/>
     </row>
-    <row r="52" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -5322,26 +5497,26 @@
       <c r="H52" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
       <c r="L52" s="3"/>
-      <c r="M52" s="3" t="s">
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="N52" s="8" t="s">
+      <c r="P52" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
-      <c r="R52" s="3" t="s">
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
@@ -5351,21 +5526,23 @@
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
       <c r="AC52" s="3"/>
-      <c r="AD52" s="5"/>
+      <c r="AD52" s="3"/>
       <c r="AE52" s="3"/>
-      <c r="AF52" s="3"/>
+      <c r="AF52" s="5"/>
       <c r="AG52" s="3"/>
       <c r="AH52" s="3"/>
       <c r="AI52" s="3"/>
-      <c r="AJ52" s="3">
+      <c r="AJ52" s="3"/>
+      <c r="AK52" s="3"/>
+      <c r="AL52" s="3">
         <v>45</v>
       </c>
-      <c r="AK52" s="4">
+      <c r="AM52" s="4">
         <v>37</v>
       </c>
-      <c r="AL52" s="3"/>
+      <c r="AN52" s="3"/>
     </row>
-    <row r="53" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>51</v>
       </c>
@@ -5390,26 +5567,26 @@
       <c r="H53" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
       <c r="L53" s="3"/>
-      <c r="M53" s="3" t="s">
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="N53" s="8" t="s">
+      <c r="P53" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
-      <c r="R53" s="3" t="s">
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
@@ -5419,21 +5596,23 @@
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
       <c r="AC53" s="3"/>
-      <c r="AD53" s="5"/>
+      <c r="AD53" s="3"/>
       <c r="AE53" s="3"/>
-      <c r="AF53" s="3"/>
+      <c r="AF53" s="5"/>
       <c r="AG53" s="3"/>
       <c r="AH53" s="3"/>
       <c r="AI53" s="3"/>
-      <c r="AJ53" s="3">
+      <c r="AJ53" s="3"/>
+      <c r="AK53" s="3"/>
+      <c r="AL53" s="3">
         <v>46</v>
       </c>
-      <c r="AK53" s="4">
+      <c r="AM53" s="4">
         <v>29</v>
       </c>
-      <c r="AL53" s="3"/>
+      <c r="AN53" s="3"/>
     </row>
-    <row r="54" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>52</v>
       </c>
@@ -5458,26 +5637,26 @@
       <c r="H54" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
       <c r="L54" s="3"/>
-      <c r="M54" s="3" t="s">
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="N54" s="8" t="s">
+      <c r="P54" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
-      <c r="R54" s="3" t="s">
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
@@ -5487,21 +5666,23 @@
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
       <c r="AC54" s="3"/>
-      <c r="AD54" s="5"/>
+      <c r="AD54" s="3"/>
       <c r="AE54" s="3"/>
-      <c r="AF54" s="3"/>
+      <c r="AF54" s="5"/>
       <c r="AG54" s="3"/>
       <c r="AH54" s="3"/>
       <c r="AI54" s="3"/>
-      <c r="AJ54" s="3">
+      <c r="AJ54" s="3"/>
+      <c r="AK54" s="3"/>
+      <c r="AL54" s="3">
         <v>47</v>
       </c>
-      <c r="AK54" s="4">
+      <c r="AM54" s="4">
         <v>30</v>
       </c>
-      <c r="AL54" s="3"/>
+      <c r="AN54" s="3"/>
     </row>
-    <row r="55" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>53</v>
       </c>
@@ -5526,26 +5707,26 @@
       <c r="H55" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-      <c r="M55" s="3" t="s">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="N55" s="8" t="s">
+      <c r="P55" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-      <c r="R55" s="3" t="s">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
@@ -5555,21 +5736,23 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-      <c r="AD55" s="5"/>
+      <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-      <c r="AF55" s="3"/>
+      <c r="AF55" s="5"/>
       <c r="AG55" s="3"/>
       <c r="AH55" s="3"/>
       <c r="AI55" s="3"/>
-      <c r="AJ55" s="3">
+      <c r="AJ55" s="3"/>
+      <c r="AK55" s="3"/>
+      <c r="AL55" s="3">
         <v>48</v>
       </c>
-      <c r="AK55" s="8" t="s">
+      <c r="AM55" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="AL55" s="3"/>
+      <c r="AN55" s="3"/>
     </row>
-    <row r="56" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -5594,48 +5777,50 @@
       <c r="H56" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-      <c r="N56" s="4" t="s">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-      <c r="R56" s="3" t="s">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-      <c r="W56" s="3" t="s">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-      <c r="AD56" s="5"/>
+      <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-      <c r="AF56" s="3"/>
+      <c r="AF56" s="5"/>
       <c r="AG56" s="3"/>
       <c r="AH56" s="3"/>
       <c r="AI56" s="3"/>
-      <c r="AJ56" s="3">
+      <c r="AJ56" s="3"/>
+      <c r="AK56" s="3"/>
+      <c r="AL56" s="3">
         <v>49</v>
       </c>
-      <c r="AK56" s="4"/>
-      <c r="AL56" s="3"/>
+      <c r="AM56" s="4"/>
+      <c r="AN56" s="3"/>
     </row>
-    <row r="57" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -5658,22 +5843,22 @@
       <c r="H57" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
-      <c r="N57" s="4"/>
+      <c r="N57" s="3"/>
       <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
+      <c r="P57" s="4"/>
       <c r="Q57" s="3"/>
-      <c r="R57" s="3" t="s">
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
@@ -5683,20 +5868,22 @@
       <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
-      <c r="AD57" s="5"/>
+      <c r="AD57" s="3"/>
       <c r="AE57" s="3"/>
-      <c r="AF57" s="3"/>
+      <c r="AF57" s="5"/>
       <c r="AG57" s="3"/>
       <c r="AH57" s="3"/>
       <c r="AI57" s="3"/>
-      <c r="AJ57" s="3">
+      <c r="AJ57" s="3"/>
+      <c r="AK57" s="3"/>
+      <c r="AL57" s="3">
         <v>401</v>
       </c>
-      <c r="AK57" s="4"/>
-      <c r="AL57" s="3"/>
+      <c r="AM57" s="4"/>
+      <c r="AN57" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AN57" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
